--- a/夺金伤害计算模拟/通用武器/S5夺金武器.xlsx
+++ b/夺金伤害计算模拟/通用武器/S5夺金武器.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\迅雷下载\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\夺金伤害计算模拟\通用武器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92C47C2-2229-446A-926D-B22DF6C8E197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C91455-2D78-4F31-9C51-746775E97A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2844" yWindow="2880" windowWidth="23040" windowHeight="11640" xr2:uid="{8E229568-CDAF-4C35-BF60-FB3FC6A624B9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{8E229568-CDAF-4C35-BF60-FB3FC6A624B9}"/>
   </bookViews>
   <sheets>
     <sheet name="夺金模式" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="120">
   <si>
     <t>鉴于官方存在改内容不写入公告的行为，当游戏内数据与表格记录冲突时，以游戏内为准，并私聊我们更新表格数据</t>
   </si>
@@ -423,6 +423,10 @@
   </si>
   <si>
     <t>.357马格南</t>
+  </si>
+  <si>
+    <t>.300BLK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -521,17 +525,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,10 +874,10 @@
   <dimension ref="A1:AF199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C64" sqref="C64:C69"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -901,7 +905,7 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -978,13 +982,13 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="18" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1068,12 +1072,12 @@
       <c r="AF3" s="4"/>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1">
-      <c r="A4" s="6"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>103</v>
+      <c r="C4" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>26</v>
@@ -1151,11 +1155,11 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="18" customHeight="1">
-      <c r="A5" s="6"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1234,11 +1238,11 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="18" customHeight="1">
-      <c r="A6" s="6"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1317,11 +1321,11 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="18" customHeight="1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1400,11 +1404,11 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="18" customHeight="1">
-      <c r="A8" s="6"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>105</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1483,11 +1487,11 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="18" customHeight="1">
-      <c r="A9" s="6"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1566,11 +1570,11 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="18" customHeight="1">
-      <c r="A10" s="6"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1649,11 +1653,11 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="18" customHeight="1">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1732,11 +1736,11 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="18" customHeight="1">
-      <c r="A12" s="6"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1815,11 +1819,11 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="18" customHeight="1">
-      <c r="A13" s="6"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1898,11 +1902,11 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="18" customHeight="1">
-      <c r="A14" s="6"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1981,11 +1985,11 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="18" customHeight="1">
-      <c r="A15" s="6"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>108</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2064,11 +2068,11 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="18" customHeight="1">
-      <c r="A16" s="6"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2147,11 +2151,11 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="18" customHeight="1">
-      <c r="A17" s="6"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2230,11 +2234,11 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="18" customHeight="1">
-      <c r="A18" s="6"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2313,11 +2317,11 @@
       </c>
     </row>
     <row r="19" spans="1:32" ht="18" customHeight="1">
-      <c r="A19" s="6"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2396,11 +2400,11 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="18" customHeight="1">
-      <c r="A20" s="6"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2479,11 +2483,11 @@
       </c>
     </row>
     <row r="21" spans="1:32" ht="18" customHeight="1">
-      <c r="A21" s="6"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2562,11 +2566,11 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="18" customHeight="1">
-      <c r="A22" s="6"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2653,11 +2657,11 @@
       <c r="AF22" s="4"/>
     </row>
     <row r="23" spans="1:32" ht="18" customHeight="1">
-      <c r="A23" s="6"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2739,39 +2743,39 @@
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="1:32" ht="18" customHeight="1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2850,11 +2854,11 @@
       </c>
     </row>
     <row r="26" spans="1:32" ht="18" customHeight="1">
-      <c r="A26" s="6"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2933,11 +2937,11 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="18" customHeight="1">
-      <c r="A27" s="6"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3020,11 +3024,11 @@
       </c>
     </row>
     <row r="28" spans="1:32" ht="18" customHeight="1">
-      <c r="A28" s="6"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="5" t="s">
         <v>111</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3103,11 +3107,11 @@
       </c>
     </row>
     <row r="29" spans="1:32" ht="18" customHeight="1">
-      <c r="A29" s="6"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3186,11 +3190,11 @@
       </c>
     </row>
     <row r="30" spans="1:32" ht="18" customHeight="1">
-      <c r="A30" s="6"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="5" t="s">
         <v>105</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3269,11 +3273,11 @@
       </c>
     </row>
     <row r="31" spans="1:32" ht="18" customHeight="1">
-      <c r="A31" s="6"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3352,11 +3356,11 @@
       </c>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1">
-      <c r="A32" s="6"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3435,11 +3439,11 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="18" customHeight="1">
-      <c r="A33" s="6"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3518,11 +3522,11 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="18" customHeight="1">
-      <c r="A34" s="6"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3601,11 +3605,11 @@
       </c>
     </row>
     <row r="35" spans="1:27" ht="18" customHeight="1">
-      <c r="A35" s="6"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3684,11 +3688,11 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="18" customHeight="1">
-      <c r="A36" s="6"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3770,39 +3774,39 @@
       <c r="A37" s="4"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
     </row>
     <row r="38" spans="1:27" ht="18" customHeight="1">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3882,11 +3886,11 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="18" customHeight="1">
-      <c r="A39" s="5"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3966,11 +3970,11 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="18" customHeight="1">
-      <c r="A40" s="5"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4050,11 +4054,11 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="18" customHeight="1">
-      <c r="A41" s="5"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4163,13 +4167,13 @@
       <c r="AA42" s="7"/>
     </row>
     <row r="43" spans="1:27" ht="18" customHeight="1">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -4248,11 +4252,11 @@
       </c>
     </row>
     <row r="44" spans="1:27" ht="18" customHeight="1">
-      <c r="A44" s="6"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -4331,11 +4335,11 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="18" customHeight="1">
-      <c r="A45" s="6"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -4416,11 +4420,11 @@
       </c>
     </row>
     <row r="46" spans="1:27" ht="18" customHeight="1">
-      <c r="A46" s="6"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="5" t="s">
         <v>108</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -4499,11 +4503,11 @@
       </c>
     </row>
     <row r="47" spans="1:27" ht="18" customHeight="1">
-      <c r="A47" s="6"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -4582,11 +4586,11 @@
       </c>
     </row>
     <row r="48" spans="1:27" ht="18" customHeight="1">
-      <c r="A48" s="6"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="5" t="s">
         <v>115</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -4694,13 +4698,13 @@
       <c r="AA49" s="7"/>
     </row>
     <row r="50" spans="1:27" ht="18" customHeight="1">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -4779,11 +4783,11 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="18" customHeight="1">
-      <c r="A51" s="6"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -4862,11 +4866,11 @@
       </c>
     </row>
     <row r="52" spans="1:27" ht="18" customHeight="1">
-      <c r="A52" s="6"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -4945,11 +4949,11 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="18" customHeight="1">
-      <c r="A53" s="6"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -5028,11 +5032,11 @@
       </c>
     </row>
     <row r="54" spans="1:27" ht="18" customHeight="1">
-      <c r="A54" s="6"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -5111,11 +5115,11 @@
       </c>
     </row>
     <row r="55" spans="1:27" ht="18" customHeight="1">
-      <c r="A55" s="6"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="5" t="s">
         <v>115</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -5194,11 +5198,11 @@
       </c>
     </row>
     <row r="56" spans="1:27" ht="18" customHeight="1">
-      <c r="A56" s="6"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="5" t="s">
         <v>105</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -5277,11 +5281,11 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="18" customHeight="1">
-      <c r="A57" s="6"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -5389,13 +5393,13 @@
       <c r="AA58" s="7"/>
     </row>
     <row r="59" spans="1:27" ht="18" customHeight="1">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="5" t="s">
         <v>116</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -5473,11 +5477,11 @@
       </c>
     </row>
     <row r="60" spans="1:27" ht="18" customHeight="1">
-      <c r="A60" s="6"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -5555,11 +5559,11 @@
       </c>
     </row>
     <row r="61" spans="1:27" ht="18" customHeight="1">
-      <c r="A61" s="6"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -5637,11 +5641,11 @@
       </c>
     </row>
     <row r="62" spans="1:27" ht="18" customHeight="1">
-      <c r="A62" s="6"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="5" t="s">
         <v>115</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -5748,13 +5752,13 @@
       <c r="AA63" s="7"/>
     </row>
     <row r="64" spans="1:27" ht="18" customHeight="1">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -5833,11 +5837,11 @@
       </c>
     </row>
     <row r="65" spans="1:27" ht="18" customHeight="1">
-      <c r="A65" s="6"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -5916,11 +5920,11 @@
       </c>
     </row>
     <row r="66" spans="1:27" ht="18" customHeight="1">
-      <c r="A66" s="6"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -5999,11 +6003,11 @@
       </c>
     </row>
     <row r="67" spans="1:27" ht="18" customHeight="1">
-      <c r="A67" s="6"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="5" t="s">
         <v>117</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -6082,11 +6086,11 @@
       </c>
     </row>
     <row r="68" spans="1:27" ht="18" customHeight="1">
-      <c r="A68" s="6"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="5" t="s">
         <v>118</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -6165,11 +6169,11 @@
       </c>
     </row>
     <row r="69" spans="1:27" ht="18" customHeight="1">
-      <c r="A69" s="6"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -6379,12 +6383,6 @@
     <row r="199" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B42:AA42"/>
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="B24:AA24"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="B37:AA37"/>
     <mergeCell ref="A64:A69"/>
     <mergeCell ref="A43:A48"/>
     <mergeCell ref="B49:AA49"/>
@@ -6392,6 +6390,12 @@
     <mergeCell ref="B58:AA58"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="B63:AA63"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B42:AA42"/>
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="B24:AA24"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="B37:AA37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/夺金伤害计算模拟/通用武器/S5夺金武器.xlsx
+++ b/夺金伤害计算模拟/通用武器/S5夺金武器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\夺金伤害计算模拟\通用武器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C91455-2D78-4F31-9C51-746775E97A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71E5414-E53B-46BE-AE2A-0872104A724A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{8E229568-CDAF-4C35-BF60-FB3FC6A624B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="121">
   <si>
     <t>鉴于官方存在改内容不写入公告的行为，当游戏内数据与表格记录冲突时，以游戏内为准，并私聊我们更新表格数据</t>
   </si>
@@ -426,6 +426,10 @@
   </si>
   <si>
     <t>.300BLK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,11 +535,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,13 +878,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4E9528-1283-454C-B327-B28DDDF9666A}">
-  <dimension ref="A1:AF199"/>
+  <dimension ref="A1:AF206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45:AA45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -982,102 +989,22 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="18" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" ht="18" customHeight="1">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>740</v>
-      </c>
-      <c r="H3" s="1">
-        <v>575</v>
-      </c>
-      <c r="I3" s="4">
-        <v>30</v>
-      </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J23" si="0">ROUND(I3*G3/60,2)</f>
-        <v>370</v>
-      </c>
-      <c r="K3" s="4">
-        <v>48</v>
-      </c>
-      <c r="L3" s="3">
-        <f t="shared" ref="L3:L23" si="1">ROUND(K3*G3/60,2)</f>
-        <v>592</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="T3" s="4">
-        <v>55</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="V3" s="4">
-        <v>90</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-    </row>
-    <row r="4" spans="1:32" ht="18" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>26</v>
@@ -1085,114 +1012,119 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
-        <v>780</v>
+      <c r="G4" s="1">
+        <v>740</v>
       </c>
       <c r="H4" s="1">
         <v>575</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J24" si="0">ROUND(I4*G4/60,2)</f>
+        <v>370</v>
+      </c>
+      <c r="K4" s="4">
+        <v>48</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" ref="L4:L24" si="1">ROUND(K4*G4/60,2)</f>
+        <v>592</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="T4" s="4">
+        <v>55</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="V4" s="4">
+        <v>90</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+    </row>
+    <row r="5" spans="1:32" ht="18" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>780</v>
+      </c>
+      <c r="H5" s="1">
+        <v>575</v>
+      </c>
+      <c r="I5" s="3">
         <v>34</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J5" s="3">
         <f t="shared" si="0"/>
         <v>442</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K5" s="3">
         <v>35</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L5" s="3">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M5" s="3">
         <v>1.9</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T4" s="3">
-        <v>35</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="V4" s="3">
-        <v>60</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="18" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>706</v>
-      </c>
-      <c r="H5" s="1">
-        <v>575</v>
-      </c>
-      <c r="I5" s="3">
-        <v>35</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="0"/>
-        <v>411.83</v>
-      </c>
-      <c r="K5" s="3">
-        <v>38</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="1"/>
-        <v>447.13</v>
-      </c>
-      <c r="M5" s="3">
-        <v>2.1</v>
       </c>
       <c r="N5" s="3">
         <v>1</v>
@@ -1216,10 +1148,10 @@
         <v>35</v>
       </c>
       <c r="U5" s="3">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="V5" s="3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="W5" s="3">
         <v>0.7</v>
@@ -1240,7 +1172,7 @@
     <row r="6" spans="1:32" ht="18" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>104</v>
@@ -1255,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>759</v>
+        <v>706</v>
       </c>
       <c r="H6" s="1">
         <v>575</v>
@@ -1265,14 +1197,14 @@
       </c>
       <c r="J6" s="3">
         <f t="shared" si="0"/>
-        <v>442.75</v>
+        <v>411.83</v>
       </c>
       <c r="K6" s="3">
         <v>38</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="1"/>
-        <v>480.7</v>
+        <v>447.13</v>
       </c>
       <c r="M6" s="3">
         <v>2.1</v>
@@ -1323,7 +1255,7 @@
     <row r="7" spans="1:32" ht="18" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>104</v>
@@ -1338,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>660</v>
+        <v>759</v>
       </c>
       <c r="H7" s="1">
         <v>575</v>
@@ -1348,14 +1280,14 @@
       </c>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>442.75</v>
       </c>
       <c r="K7" s="3">
         <v>38</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="1"/>
-        <v>418</v>
+        <v>480.7</v>
       </c>
       <c r="M7" s="3">
         <v>2.1</v>
@@ -1406,10 +1338,10 @@
     <row r="8" spans="1:32" ht="18" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -1421,27 +1353,27 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>972</v>
-      </c>
-      <c r="H8" s="3">
-        <v>330</v>
+        <v>660</v>
+      </c>
+      <c r="H8" s="1">
+        <v>575</v>
       </c>
       <c r="I8" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="0"/>
-        <v>469.8</v>
+        <v>385</v>
       </c>
       <c r="K8" s="3">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="1"/>
-        <v>777.6</v>
+        <v>418</v>
       </c>
       <c r="M8" s="3">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
@@ -1462,13 +1394,13 @@
         <v>0.4</v>
       </c>
       <c r="T8" s="3">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="U8" s="3">
         <v>0.85</v>
       </c>
       <c r="V8" s="3">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="W8" s="3">
         <v>0.7</v>
@@ -1489,10 +1421,10 @@
     <row r="9" spans="1:32" ht="18" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
@@ -1504,24 +1436,24 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>632</v>
+        <v>972</v>
       </c>
       <c r="H9" s="3">
-        <v>575</v>
+        <v>330</v>
       </c>
       <c r="I9" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="0"/>
-        <v>284.39999999999998</v>
+        <v>469.8</v>
       </c>
       <c r="K9" s="3">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="1"/>
-        <v>337.07</v>
+        <v>777.6</v>
       </c>
       <c r="M9" s="3">
         <v>1.9</v>
@@ -1545,13 +1477,13 @@
         <v>0.4</v>
       </c>
       <c r="T9" s="3">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="U9" s="3">
         <v>0.85</v>
       </c>
       <c r="V9" s="3">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="W9" s="3">
         <v>0.7</v>
@@ -1571,11 +1503,11 @@
     </row>
     <row r="10" spans="1:32" ht="18" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
@@ -1590,21 +1522,21 @@
         <v>632</v>
       </c>
       <c r="H10" s="3">
-        <v>630</v>
+        <v>575</v>
       </c>
       <c r="I10" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
-        <v>358.13</v>
+        <v>284.39999999999998</v>
       </c>
       <c r="K10" s="3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="1"/>
-        <v>379.2</v>
+        <v>337.07</v>
       </c>
       <c r="M10" s="3">
         <v>1.9</v>
@@ -1615,16 +1547,16 @@
       <c r="O10" s="3">
         <v>0.9</v>
       </c>
-      <c r="P10" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S10" s="4">
+      <c r="P10" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S10" s="3">
         <v>0.4</v>
       </c>
       <c r="T10" s="3">
@@ -1655,10 +1587,10 @@
     <row r="11" spans="1:32" ht="18" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
@@ -1670,24 +1602,24 @@
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>533</v>
-      </c>
-      <c r="H11" s="4">
+        <v>632</v>
+      </c>
+      <c r="H11" s="3">
         <v>630</v>
       </c>
       <c r="I11" s="3">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="0"/>
-        <v>346.45</v>
+        <v>358.13</v>
       </c>
       <c r="K11" s="3">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="1"/>
-        <v>373.1</v>
+        <v>379.2</v>
       </c>
       <c r="M11" s="3">
         <v>1.9</v>
@@ -1711,16 +1643,16 @@
         <v>0.4</v>
       </c>
       <c r="T11" s="3">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="U11" s="3">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="V11" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="W11" s="3">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>27</v>
@@ -1738,7 +1670,7 @@
     <row r="12" spans="1:32" ht="18" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>107</v>
@@ -1753,24 +1685,24 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="H12" s="4">
         <v>630</v>
       </c>
       <c r="I12" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>346.45</v>
       </c>
       <c r="K12" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="1"/>
-        <v>390</v>
+        <v>373.1</v>
       </c>
       <c r="M12" s="3">
         <v>1.9</v>
@@ -1794,16 +1726,16 @@
         <v>0.4</v>
       </c>
       <c r="T12" s="3">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="U12" s="3">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="V12" s="3">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="W12" s="3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>27</v>
@@ -1821,13 +1753,13 @@
     <row r="13" spans="1:32" ht="18" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1836,24 +1768,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>735</v>
-      </c>
-      <c r="H13" s="3">
-        <v>575</v>
+        <v>585</v>
+      </c>
+      <c r="H13" s="4">
+        <v>630</v>
       </c>
       <c r="I13" s="3">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="0"/>
-        <v>355.25</v>
+        <v>390</v>
       </c>
       <c r="K13" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="1"/>
-        <v>502.25</v>
+        <v>390</v>
       </c>
       <c r="M13" s="3">
         <v>1.9</v>
@@ -1876,16 +1808,16 @@
       <c r="S13" s="4">
         <v>0.4</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>40</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>0.85</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>70</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="3">
         <v>0.7</v>
       </c>
       <c r="X13" s="1" t="s">
@@ -1904,13 +1836,13 @@
     <row r="14" spans="1:32" ht="18" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1919,24 +1851,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>906</v>
-      </c>
-      <c r="H14" s="4">
+        <v>735</v>
+      </c>
+      <c r="H14" s="3">
         <v>575</v>
       </c>
       <c r="I14" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="0"/>
-        <v>362.4</v>
+        <v>355.25</v>
       </c>
       <c r="K14" s="3">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="1"/>
-        <v>468.1</v>
+        <v>502.25</v>
       </c>
       <c r="M14" s="3">
         <v>1.9</v>
@@ -1959,17 +1891,17 @@
       <c r="S14" s="4">
         <v>0.4</v>
       </c>
-      <c r="T14" s="3">
-        <v>35</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="T14" s="4">
+        <v>40</v>
+      </c>
+      <c r="U14" s="4">
         <v>0.85</v>
       </c>
-      <c r="V14" s="3">
-        <v>65</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0.75</v>
+      <c r="V14" s="4">
+        <v>70</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0.7</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>27</v>
@@ -1987,13 +1919,13 @@
     <row r="15" spans="1:32" ht="18" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2002,24 +1934,24 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>649</v>
+        <v>906</v>
       </c>
       <c r="H15" s="4">
-        <v>630</v>
+        <v>575</v>
       </c>
       <c r="I15" s="3">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="0"/>
-        <v>411.03</v>
+        <v>362.4</v>
       </c>
       <c r="K15" s="3">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="1"/>
-        <v>432.67</v>
+        <v>468.1</v>
       </c>
       <c r="M15" s="3">
         <v>1.9</v>
@@ -2028,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P15" s="4">
         <v>0.4</v>
@@ -2043,16 +1975,16 @@
         <v>0.4</v>
       </c>
       <c r="T15" s="3">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="U15" s="3">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="V15" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="W15" s="3">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>27</v>
@@ -2070,10 +2002,10 @@
     <row r="16" spans="1:32" ht="18" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
@@ -2085,33 +2017,33 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>679</v>
+        <v>649</v>
       </c>
       <c r="H16" s="4">
-        <v>575</v>
+        <v>630</v>
       </c>
       <c r="I16" s="3">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="0"/>
-        <v>362.13</v>
+        <v>411.03</v>
       </c>
       <c r="K16" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="1"/>
-        <v>396.08</v>
+        <v>432.67</v>
       </c>
       <c r="M16" s="3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="N16" s="3">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O16" s="3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P16" s="4">
         <v>0.4</v>
@@ -2126,13 +2058,13 @@
         <v>0.4</v>
       </c>
       <c r="T16" s="3">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="U16" s="3">
         <v>0.9</v>
       </c>
       <c r="V16" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="W16" s="3">
         <v>0.8</v>
@@ -2153,7 +2085,7 @@
     <row r="17" spans="1:32" ht="18" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>103</v>
@@ -2168,30 +2100,30 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>880</v>
+        <v>679</v>
       </c>
       <c r="H17" s="4">
         <v>575</v>
       </c>
       <c r="I17" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="0"/>
-        <v>454.67</v>
+        <v>362.13</v>
       </c>
       <c r="K17" s="3">
         <v>35</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="1"/>
-        <v>513.33000000000004</v>
+        <v>396.08</v>
       </c>
       <c r="M17" s="3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N17" s="3">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O17" s="3">
         <v>0.9</v>
@@ -2209,16 +2141,16 @@
         <v>0.4</v>
       </c>
       <c r="T17" s="3">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="U17" s="3">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="V17" s="3">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="W17" s="3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>27</v>
@@ -2236,10 +2168,10 @@
     <row r="18" spans="1:32" ht="18" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>26</v>
@@ -2251,27 +2183,27 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>340</v>
+        <v>880</v>
+      </c>
+      <c r="H18" s="4">
+        <v>575</v>
       </c>
       <c r="I18" s="3">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="0"/>
-        <v>466.67</v>
+        <v>454.67</v>
       </c>
       <c r="K18" s="3">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="1"/>
-        <v>458.33</v>
+        <v>513.33000000000004</v>
       </c>
       <c r="M18" s="3">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="N18" s="3">
         <v>1</v>
@@ -2280,28 +2212,28 @@
         <v>0.9</v>
       </c>
       <c r="P18" s="4">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="Q18" s="4">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="R18" s="4">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="S18" s="4">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="T18" s="3">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="U18" s="3">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="V18" s="3">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="W18" s="3">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>27</v>
@@ -2319,10 +2251,10 @@
     <row r="19" spans="1:32" ht="18" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
@@ -2334,27 +2266,27 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="H19" s="3">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="I19" s="3">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="0"/>
-        <v>302.02999999999997</v>
+        <v>466.67</v>
       </c>
       <c r="K19" s="3">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="1"/>
-        <v>319.8</v>
+        <v>458.33</v>
       </c>
       <c r="M19" s="3">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
@@ -2363,28 +2295,28 @@
         <v>0.9</v>
       </c>
       <c r="P19" s="4">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="Q19" s="4">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="R19" s="4">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="S19" s="4">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="T19" s="3">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="U19" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="V19" s="3">
+        <v>90</v>
+      </c>
+      <c r="W19" s="3">
         <v>0.8</v>
-      </c>
-      <c r="V19" s="3">
-        <v>70</v>
-      </c>
-      <c r="W19" s="3">
-        <v>0.6</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>27</v>
@@ -2402,10 +2334,10 @@
     <row r="20" spans="1:32" ht="18" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
@@ -2417,27 +2349,27 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>679</v>
+        <v>533</v>
       </c>
       <c r="H20" s="3">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="I20" s="3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="0"/>
-        <v>316.87</v>
+        <v>302.02999999999997</v>
       </c>
       <c r="K20" s="3">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="1"/>
-        <v>475.3</v>
+        <v>319.8</v>
       </c>
       <c r="M20" s="3">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
@@ -2458,16 +2390,16 @@
         <v>0.4</v>
       </c>
       <c r="T20" s="3">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="U20" s="3">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="V20" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="W20" s="3">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>27</v>
@@ -2485,10 +2417,10 @@
     <row r="21" spans="1:32" ht="18" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>26</v>
@@ -2500,27 +2432,27 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="H21" s="3">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="I21" s="3">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>316.87</v>
       </c>
       <c r="K21" s="3">
         <v>42</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>475.3</v>
       </c>
       <c r="M21" s="3">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
@@ -2541,13 +2473,13 @@
         <v>0.4</v>
       </c>
       <c r="T21" s="3">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="U21" s="3">
         <v>0.85</v>
       </c>
       <c r="V21" s="3">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="W21" s="3">
         <v>0.7</v>
@@ -2568,7 +2500,7 @@
     <row r="22" spans="1:32" ht="18" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>106</v>
@@ -2582,34 +2514,33 @@
       <c r="F22" s="4">
         <v>0</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="4">
-        <f>H21*1.06</f>
-        <v>556.5</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="H22" s="3">
+        <v>525</v>
+      </c>
+      <c r="I22" s="3">
         <v>40</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>42</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="M22" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="N22" s="4">
-        <v>1</v>
-      </c>
-      <c r="O22" s="4">
+      <c r="M22" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
         <v>0.9</v>
       </c>
       <c r="P22" s="4">
@@ -2624,18 +2555,16 @@
       <c r="S22" s="4">
         <v>0.4</v>
       </c>
-      <c r="T22" s="4">
-        <f>T21*1.06</f>
-        <v>42.400000000000006</v>
-      </c>
-      <c r="U22" s="4">
+      <c r="T22" s="3">
+        <v>40</v>
+      </c>
+      <c r="U22" s="3">
         <v>0.85</v>
       </c>
-      <c r="V22" s="4">
-        <f>V21*1.06</f>
-        <v>74.2</v>
-      </c>
-      <c r="W22" s="4">
+      <c r="V22" s="3">
+        <v>70</v>
+      </c>
+      <c r="W22" s="3">
         <v>0.7</v>
       </c>
       <c r="X22" s="1" t="s">
@@ -2650,19 +2579,14 @@
       <c r="AA22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
     </row>
     <row r="23" spans="1:32" ht="18" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>26</v>
@@ -2673,400 +2597,346 @@
       <c r="F23" s="4">
         <v>0</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="4">
+        <v>600</v>
+      </c>
+      <c r="H23" s="4">
+        <f>H22*1.06</f>
+        <v>556.5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>40</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="K23" s="4">
+        <v>42</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T23" s="4">
+        <f>T22*1.06</f>
+        <v>42.400000000000006</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="V23" s="4">
+        <f>V22*1.06</f>
+        <v>74.2</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+    </row>
+    <row r="24" spans="1:32" ht="18" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>575</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I24" s="3">
         <v>29</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J24" s="3">
         <f t="shared" si="0"/>
         <v>386.67</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K24" s="3">
         <v>32</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L24" s="4">
         <f t="shared" si="1"/>
         <v>426.67</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M24" s="3">
         <v>1.9</v>
       </c>
-      <c r="N23" s="3">
-        <v>1</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
         <v>0.9</v>
       </c>
-      <c r="P23" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S23" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="P24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T24" s="3">
         <v>40</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U24" s="3">
         <v>0.86</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V24" s="3">
         <v>70</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W24" s="3">
         <v>0.7</v>
       </c>
-      <c r="X23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" ht="18" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
+      <c r="X24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:32" ht="18" customHeight="1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+    </row>
+    <row r="26" spans="1:32" ht="18" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+    </row>
+    <row r="27" spans="1:32" ht="18" customHeight="1">
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G27" s="3">
         <v>763</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H27" s="3">
         <v>450</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I27" s="3">
         <v>36</v>
       </c>
-      <c r="J25" s="3">
-        <f t="shared" ref="J25:J36" si="2">ROUND(I25*G25/60,2)</f>
+      <c r="J27" s="3">
+        <f t="shared" ref="J27:J38" si="2">ROUND(I27*G27/60,2)</f>
         <v>457.8</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K27" s="3">
         <v>33</v>
       </c>
-      <c r="L25" s="3">
-        <f t="shared" ref="L25:L36" si="3">ROUND(K25*G25/60,2)</f>
+      <c r="L27" s="3">
+        <f t="shared" ref="L27:L38" si="3">ROUND(K27*G27/60,2)</f>
         <v>419.65</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M27" s="3">
         <v>1.9</v>
       </c>
-      <c r="N25" s="3">
-        <v>1</v>
-      </c>
-      <c r="O25" s="3">
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
         <v>0.9</v>
       </c>
-      <c r="P25" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R25" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S25" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T25" s="3">
+      <c r="P27" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T27" s="3">
         <v>20</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U27" s="3">
         <v>0.75</v>
       </c>
-      <c r="V25" s="3">
-        <v>27</v>
-      </c>
-      <c r="W25" s="3">
+      <c r="V27" s="3">
+        <v>27</v>
+      </c>
+      <c r="W27" s="3">
         <v>0.65</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X27" s="3">
         <v>40</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y27" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z27" s="3">
         <v>55</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AA27" s="3">
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="18" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="1" t="s">
+    <row r="28" spans="1:32" ht="18" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G28" s="3">
         <v>848</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H28" s="3">
         <v>450</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I28" s="3">
         <v>36</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J28" s="3">
         <f t="shared" si="2"/>
         <v>508.8</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K28" s="3">
         <v>33</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L28" s="3">
         <f t="shared" si="3"/>
         <v>466.4</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M28" s="3">
         <v>1.9</v>
       </c>
-      <c r="N26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P26" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R26" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S26" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T26" s="3">
-        <v>20</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="V26" s="3">
-        <v>27</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="X26" s="3">
-        <v>40</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>55</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="18" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>694</v>
-      </c>
-      <c r="H27" s="3">
-        <v>450</v>
-      </c>
-      <c r="I27" s="3">
-        <v>36</v>
-      </c>
-      <c r="J27" s="3">
-        <f t="shared" si="2"/>
-        <v>416.4</v>
-      </c>
-      <c r="K27" s="3">
-        <v>33</v>
-      </c>
-      <c r="L27" s="3">
-        <f t="shared" si="3"/>
-        <v>381.7</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P27" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R27" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S27" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T27" s="3">
-        <f>T25*1.35</f>
-        <v>27</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="V27" s="3">
-        <f>V25*1.35</f>
-        <v>36.450000000000003</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="X27" s="3">
-        <f>X25*1.35</f>
-        <v>54</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Z27" s="3">
-        <f>Z25*1.35</f>
-        <v>74.25</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" ht="18" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>950</v>
-      </c>
-      <c r="H28" s="3">
-        <v>450</v>
-      </c>
-      <c r="I28" s="3">
-        <v>32</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" si="2"/>
-        <v>506.67</v>
-      </c>
-      <c r="K28" s="3">
-        <v>28</v>
-      </c>
-      <c r="L28" s="4">
-        <f t="shared" si="3"/>
-        <v>443.33</v>
-      </c>
-      <c r="M28" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="N28" s="4">
-        <v>1</v>
-      </c>
-      <c r="O28" s="4">
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
         <v>0.9</v>
       </c>
       <c r="P28" s="4">
@@ -3093,23 +2963,23 @@
       <c r="W28" s="3">
         <v>0.65</v>
       </c>
-      <c r="X28" s="4">
+      <c r="X28" s="3">
         <v>40</v>
       </c>
       <c r="Y28" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>27</v>
+      <c r="Z28" s="3">
+        <v>55</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0.45</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="18" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>110</v>
@@ -3124,32 +2994,32 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="H29" s="3">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="I29" s="3">
         <v>36</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>416.4</v>
       </c>
       <c r="K29" s="3">
-        <v>35</v>
-      </c>
-      <c r="L29" s="4">
+        <v>33</v>
+      </c>
+      <c r="L29" s="3">
         <f t="shared" si="3"/>
-        <v>408.33</v>
-      </c>
-      <c r="M29" s="4">
+        <v>381.7</v>
+      </c>
+      <c r="M29" s="3">
         <v>1.9</v>
       </c>
-      <c r="N29" s="4">
-        <v>1</v>
-      </c>
-      <c r="O29" s="4">
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
         <v>0.9</v>
       </c>
       <c r="P29" s="4">
@@ -3164,38 +3034,42 @@
       <c r="S29" s="4">
         <v>0.4</v>
       </c>
-      <c r="T29" s="4">
-        <v>20</v>
-      </c>
-      <c r="U29" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="V29" s="4">
-        <v>27</v>
-      </c>
-      <c r="W29" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="X29" s="4">
-        <v>40</v>
-      </c>
-      <c r="Y29" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="Z29" s="4">
-        <v>55</v>
-      </c>
-      <c r="AA29" s="4">
-        <v>0.4</v>
+      <c r="T29" s="3">
+        <f>T27*1.35</f>
+        <v>27</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="V29" s="3">
+        <f>V27*1.35</f>
+        <v>36.450000000000003</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="X29" s="3">
+        <f>X27*1.35</f>
+        <v>54</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z29" s="3">
+        <f>Z27*1.35</f>
+        <v>74.25</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0.45</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="18" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>26</v>
@@ -3207,24 +3081,24 @@
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>747</v>
+        <v>950</v>
       </c>
       <c r="H30" s="3">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="I30" s="3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="2"/>
-        <v>448.2</v>
+        <v>506.67</v>
       </c>
       <c r="K30" s="3">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="3"/>
-        <v>597.6</v>
+        <v>443.33</v>
       </c>
       <c r="M30" s="4">
         <v>1.9</v>
@@ -3248,22 +3122,22 @@
         <v>0.4</v>
       </c>
       <c r="T30" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U30" s="3">
         <v>0.75</v>
       </c>
       <c r="V30" s="3">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="W30" s="3">
         <v>0.65</v>
       </c>
-      <c r="X30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>27</v>
+      <c r="X30" s="4">
+        <v>40</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>27</v>
@@ -3275,10 +3149,10 @@
     <row r="31" spans="1:32" ht="18" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>26</v>
@@ -3290,24 +3164,24 @@
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>605</v>
+        <v>700</v>
       </c>
       <c r="H31" s="3">
         <v>500</v>
       </c>
       <c r="I31" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="2"/>
-        <v>352.92</v>
+        <v>420</v>
       </c>
       <c r="K31" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="3"/>
-        <v>403.33</v>
+        <v>408.33</v>
       </c>
       <c r="M31" s="4">
         <v>1.9</v>
@@ -3318,50 +3192,50 @@
       <c r="O31" s="4">
         <v>0.9</v>
       </c>
-      <c r="P31" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="R31" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="S31" s="3">
-        <v>0.45</v>
+      <c r="P31" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0.4</v>
       </c>
       <c r="T31" s="4">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="U31" s="4">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="V31" s="4">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="W31" s="4">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="X31" s="4">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="Y31" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Z31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>27</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>55</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>26</v>
@@ -3373,24 +3247,24 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>659</v>
-      </c>
-      <c r="H32" s="4">
-        <v>500</v>
+        <v>747</v>
+      </c>
+      <c r="H32" s="3">
+        <v>330</v>
       </c>
       <c r="I32" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="2"/>
-        <v>351.47</v>
+        <v>448.2</v>
       </c>
       <c r="K32" s="3">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="3"/>
-        <v>384.42</v>
+        <v>597.6</v>
       </c>
       <c r="M32" s="4">
         <v>1.9</v>
@@ -3414,37 +3288,37 @@
         <v>0.4</v>
       </c>
       <c r="T32" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U32" s="3">
         <v>0.75</v>
       </c>
       <c r="V32" s="3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W32" s="3">
         <v>0.65</v>
       </c>
-      <c r="X32" s="4">
-        <v>40</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>55</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>0.45</v>
+      <c r="X32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="18" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="3" t="s">
-        <v>59</v>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>26</v>
@@ -3453,27 +3327,27 @@
         <v>1</v>
       </c>
       <c r="F33" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>780</v>
+        <v>605</v>
       </c>
       <c r="H33" s="3">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="I33" s="3">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="2"/>
-        <v>364</v>
+        <v>352.92</v>
       </c>
       <c r="K33" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="3"/>
-        <v>455</v>
+        <v>403.33</v>
       </c>
       <c r="M33" s="4">
         <v>1.9</v>
@@ -3484,53 +3358,53 @@
       <c r="O33" s="4">
         <v>0.9</v>
       </c>
-      <c r="P33" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R33" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S33" s="4">
-        <v>0.4</v>
+      <c r="P33" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0.45</v>
       </c>
       <c r="T33" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="U33" s="4">
         <v>0.75</v>
       </c>
       <c r="V33" s="4">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="W33" s="4">
         <v>0.65</v>
       </c>
       <c r="X33" s="4">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="Y33" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z33" s="4">
-        <v>55</v>
-      </c>
-      <c r="AA33" s="4">
-        <v>0.45</v>
+      <c r="Z33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="18" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -3539,9 +3413,9 @@
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>1091</v>
-      </c>
-      <c r="H34" s="3">
+        <v>659</v>
+      </c>
+      <c r="H34" s="4">
         <v>500</v>
       </c>
       <c r="I34" s="3">
@@ -3549,14 +3423,14 @@
       </c>
       <c r="J34" s="4">
         <f t="shared" si="2"/>
-        <v>581.87</v>
+        <v>351.47</v>
       </c>
       <c r="K34" s="3">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="3"/>
-        <v>509.13</v>
+        <v>384.42</v>
       </c>
       <c r="M34" s="4">
         <v>1.9</v>
@@ -3579,38 +3453,38 @@
       <c r="S34" s="4">
         <v>0.4</v>
       </c>
-      <c r="T34" s="4">
+      <c r="T34" s="3">
         <v>20</v>
       </c>
-      <c r="U34" s="4">
+      <c r="U34" s="3">
         <v>0.75</v>
       </c>
-      <c r="V34" s="4">
-        <v>27</v>
-      </c>
-      <c r="W34" s="4">
+      <c r="V34" s="3">
+        <v>27</v>
+      </c>
+      <c r="W34" s="3">
         <v>0.65</v>
       </c>
       <c r="X34" s="4">
         <v>40</v>
       </c>
-      <c r="Y34" s="4">
+      <c r="Y34" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z34" s="4">
+      <c r="Z34" s="3">
         <v>55</v>
       </c>
-      <c r="AA34" s="4">
+      <c r="AA34" s="3">
         <v>0.45</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="18" customHeight="1">
       <c r="A35" s="8"/>
-      <c r="B35" s="1" t="s">
-        <v>61</v>
+      <c r="B35" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>26</v>
@@ -3619,27 +3493,27 @@
         <v>1</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G35" s="3">
-        <v>898</v>
+        <v>780</v>
       </c>
       <c r="H35" s="3">
         <v>450</v>
       </c>
       <c r="I35" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="2"/>
-        <v>478.93</v>
+        <v>364</v>
       </c>
       <c r="K35" s="3">
         <v>35</v>
       </c>
       <c r="L35" s="4">
         <f t="shared" si="3"/>
-        <v>523.83000000000004</v>
+        <v>455</v>
       </c>
       <c r="M35" s="4">
         <v>1.9</v>
@@ -3690,13 +3564,13 @@
     <row r="36" spans="1:27" ht="18" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -3705,32 +3579,32 @@
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>820</v>
+        <v>1091</v>
       </c>
       <c r="H36" s="3">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="I36" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="2"/>
-        <v>410</v>
+        <v>581.87</v>
       </c>
       <c r="K36" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="3"/>
-        <v>437.33</v>
-      </c>
-      <c r="M36" s="3">
+        <v>509.13</v>
+      </c>
+      <c r="M36" s="4">
         <v>1.9</v>
       </c>
-      <c r="N36" s="3">
-        <v>1</v>
-      </c>
-      <c r="O36" s="3">
+      <c r="N36" s="4">
+        <v>1</v>
+      </c>
+      <c r="O36" s="4">
         <v>0.9</v>
       </c>
       <c r="P36" s="4">
@@ -3771,1003 +3645,915 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="18" customHeight="1">
-      <c r="A37" s="4"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>898</v>
+      </c>
+      <c r="H37" s="3">
+        <v>450</v>
+      </c>
+      <c r="I37" s="3">
+        <v>32</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="2"/>
+        <v>478.93</v>
+      </c>
+      <c r="K37" s="3">
+        <v>35</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="3"/>
+        <v>523.83000000000004</v>
+      </c>
+      <c r="M37" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="N37" s="4">
+        <v>1</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S37" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T37" s="4">
+        <v>20</v>
+      </c>
+      <c r="U37" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="V37" s="4">
+        <v>27</v>
+      </c>
+      <c r="W37" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="X37" s="4">
+        <v>40</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>55</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="38" spans="1:27" ht="18" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="3">
+        <v>820</v>
+      </c>
+      <c r="H38" s="3">
+        <v>450</v>
+      </c>
+      <c r="I38" s="3">
+        <v>30</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="2"/>
+        <v>410</v>
+      </c>
+      <c r="K38" s="3">
+        <v>32</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="3"/>
+        <v>437.33</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R38" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S38" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T38" s="4">
+        <v>20</v>
+      </c>
+      <c r="U38" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="V38" s="4">
+        <v>27</v>
+      </c>
+      <c r="W38" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="X38" s="4">
+        <v>40</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>55</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="18" customHeight="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+    </row>
+    <row r="40" spans="1:27" ht="18" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+    </row>
+    <row r="41" spans="1:27" ht="18" customHeight="1">
+      <c r="B41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>375</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I41" s="1">
         <v>17</v>
       </c>
-      <c r="J38" s="4">
-        <f>2*I38</f>
-        <v>34</v>
-      </c>
-      <c r="K38" s="3">
+      <c r="J41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K41" s="3">
         <f>18*8</f>
         <v>144</v>
       </c>
-      <c r="L38" s="4">
-        <f>2*K38</f>
+      <c r="L41" s="4">
+        <f>2*K41</f>
         <v>288</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M41" s="3">
         <v>1.9</v>
       </c>
-      <c r="N38" s="3">
-        <v>1</v>
-      </c>
-      <c r="O38" s="3">
+      <c r="N41" s="3">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3">
         <v>0.9</v>
       </c>
-      <c r="P38" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R38" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S38" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T38" s="3">
+      <c r="P41" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T41" s="3">
         <v>50</v>
       </c>
-      <c r="U38" s="3">
+      <c r="U41" s="3">
         <v>0.8</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA38" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="18" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="1" t="s">
+      <c r="V41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="18" customHeight="1">
+      <c r="A42" s="4"/>
+      <c r="B42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E42" s="1">
         <v>2</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G42" s="3">
         <v>74</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H42" s="3">
         <v>400</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I42" s="3">
         <v>17</v>
       </c>
-      <c r="J39" s="4">
-        <f>ROUND(I39*G39/60,2)</f>
+      <c r="J42" s="4">
+        <f>ROUND(I42*G42/60,2)</f>
         <v>20.97</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K42" s="3">
         <f>16*8</f>
         <v>128</v>
       </c>
-      <c r="L39" s="4">
-        <f>ROUND(K39*G39/60,2)</f>
+      <c r="L42" s="4">
+        <f>ROUND(K42*G42/60,2)</f>
         <v>157.87</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M42" s="3">
         <v>1.9</v>
       </c>
-      <c r="N39" s="3">
-        <v>1</v>
-      </c>
-      <c r="O39" s="3">
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
         <v>0.9</v>
       </c>
-      <c r="P39" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R39" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S39" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T39" s="3">
+      <c r="P42" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R42" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S42" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T42" s="3">
         <v>50</v>
       </c>
-      <c r="U39" s="3">
+      <c r="U42" s="3">
         <v>0.8</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA39" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="18" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="1" t="s">
+      <c r="V42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="18" customHeight="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E43" s="1">
         <v>2</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I43" s="3">
         <v>13</v>
       </c>
-      <c r="J40" s="4">
-        <f>ROUND(I40*G40/60,2)</f>
+      <c r="J43" s="4">
+        <f>ROUND(I43*G43/60,2)</f>
         <v>65</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K43" s="3">
         <f>16*8</f>
         <v>128</v>
       </c>
-      <c r="L40" s="4">
-        <f>ROUND(K40*G40/60,2)</f>
+      <c r="L43" s="4">
+        <f>ROUND(K43*G43/60,2)</f>
         <v>640</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M43" s="3">
         <v>1.9</v>
       </c>
-      <c r="N40" s="3">
-        <v>1</v>
-      </c>
-      <c r="O40" s="3">
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3">
         <v>0.9</v>
       </c>
-      <c r="P40" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R40" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S40" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T40" s="3">
+      <c r="P43" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R43" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S43" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T43" s="3">
         <v>50</v>
       </c>
-      <c r="U40" s="3">
+      <c r="U43" s="3">
         <v>0.8</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA40" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="18" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="1" t="s">
+      <c r="V43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="18" customHeight="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E44" s="1">
         <v>2</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G44" s="3">
         <v>261</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H44" s="3">
         <v>450</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I44" s="3">
         <v>14</v>
       </c>
-      <c r="J41" s="4">
-        <f>ROUND(I41*G41/60,2)</f>
+      <c r="J44" s="4">
+        <f>ROUND(I44*G44/60,2)</f>
         <v>60.9</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K44" s="3">
         <f>16*8</f>
         <v>128</v>
       </c>
-      <c r="L41" s="4">
-        <f>ROUND(K41*G41/60,2)</f>
+      <c r="L44" s="4">
+        <f>ROUND(K44*G44/60,2)</f>
         <v>556.79999999999995</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M44" s="3">
         <v>1.9</v>
       </c>
-      <c r="N41" s="3">
-        <v>1</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+      <c r="O44" s="3">
         <v>0.9</v>
       </c>
-      <c r="P41" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R41" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S41" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="P44" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S44" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T44" s="3">
         <v>50</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U44" s="3">
         <v>0.8</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA41" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="18" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-    </row>
-    <row r="43" spans="1:27" ht="18" customHeight="1">
-      <c r="A43" s="6" t="s">
+      <c r="V44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="18" customHeight="1">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+    </row>
+    <row r="46" spans="1:27" ht="18" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="1" t="s">
+    </row>
+    <row r="47" spans="1:27" ht="18" customHeight="1">
+      <c r="A47" s="4"/>
+      <c r="B47" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
         <v>60</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G47" s="3">
         <v>785</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H47" s="3">
         <v>575</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I47" s="3">
         <v>32</v>
       </c>
-      <c r="J43" s="3">
-        <f t="shared" ref="J43:J48" si="4">ROUND(I43*G43/60,2)</f>
+      <c r="J47" s="3">
+        <f t="shared" ref="J47:J52" si="4">ROUND(I47*G47/60,2)</f>
         <v>418.67</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K47" s="3">
         <v>38</v>
       </c>
-      <c r="L43" s="3">
-        <f t="shared" ref="L43:L48" si="5">ROUND(K43*G43/60,2)</f>
+      <c r="L47" s="3">
+        <f t="shared" ref="L47:L52" si="5">ROUND(K47*G47/60,2)</f>
         <v>497.17</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M47" s="3">
         <v>2.1</v>
       </c>
-      <c r="N43" s="3">
-        <v>1</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3">
         <v>0.9</v>
       </c>
-      <c r="P43" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R43" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S43" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="P47" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R47" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S47" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T47" s="3">
         <v>40</v>
       </c>
-      <c r="U43" s="3">
+      <c r="U47" s="3">
         <v>0.85</v>
       </c>
-      <c r="V43" s="3">
+      <c r="V47" s="3">
         <v>70</v>
       </c>
-      <c r="W43" s="3">
+      <c r="W47" s="3">
         <v>0.7</v>
       </c>
-      <c r="X43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA43" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="18" customHeight="1">
-      <c r="A44" s="8"/>
-      <c r="B44" s="1" t="s">
+      <c r="X47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="18" customHeight="1">
+      <c r="B48" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
         <v>60</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G48" s="3">
         <v>873</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H48" s="3">
         <v>575</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I48" s="3">
         <v>32</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J48" s="3">
         <f t="shared" si="4"/>
         <v>465.6</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K48" s="3">
         <v>38</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L48" s="3">
         <f t="shared" si="5"/>
         <v>552.9</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M48" s="3">
         <v>2.1</v>
       </c>
-      <c r="N44" s="3">
-        <v>1</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="N48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3">
         <v>0.9</v>
       </c>
-      <c r="P44" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R44" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S44" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="P48" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R48" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S48" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T48" s="3">
         <v>40</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U48" s="3">
         <v>0.85</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V48" s="3">
         <v>70</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W48" s="3">
         <v>0.7</v>
       </c>
-      <c r="X44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA44" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" ht="18" customHeight="1">
-      <c r="A45" s="8"/>
-      <c r="B45" s="1" t="s">
+      <c r="X48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="18" customHeight="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
         <v>60</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G49" s="3">
         <v>714</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H49" s="3">
         <v>575</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I49" s="3">
         <v>32</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J49" s="3">
         <f t="shared" si="4"/>
         <v>380.8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K49" s="3">
         <v>38</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L49" s="3">
         <f t="shared" si="5"/>
         <v>452.2</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M49" s="3">
         <v>2.1</v>
       </c>
-      <c r="N45" s="3">
-        <v>1</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="N49" s="3">
+        <v>1</v>
+      </c>
+      <c r="O49" s="3">
         <v>0.9</v>
       </c>
-      <c r="P45" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R45" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S45" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T45" s="3">
-        <f>T43*1.35</f>
+      <c r="P49" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R49" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S49" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T49" s="3">
+        <f>T47*1.35</f>
         <v>54</v>
       </c>
-      <c r="U45" s="3">
+      <c r="U49" s="3">
         <v>0.85</v>
       </c>
-      <c r="V45" s="3">
-        <f>V43*1.35</f>
+      <c r="V49" s="3">
+        <f>V47*1.35</f>
         <v>94.5</v>
       </c>
-      <c r="W45" s="3">
+      <c r="W49" s="3">
         <v>0.7</v>
       </c>
-      <c r="X45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA45" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="18" customHeight="1">
-      <c r="A46" s="8"/>
-      <c r="B46" s="1" t="s">
+      <c r="X49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="18" customHeight="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G50" s="3">
         <v>550</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H50" s="3">
         <v>630</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I50" s="3">
         <v>55</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J50" s="4">
         <f t="shared" si="4"/>
         <v>504.17</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K50" s="3">
         <v>53</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L50" s="4">
         <f t="shared" si="5"/>
         <v>485.83</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M50" s="3">
         <v>1.6</v>
       </c>
-      <c r="N46" s="3">
-        <v>1</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="N50" s="3">
+        <v>1</v>
+      </c>
+      <c r="O50" s="3">
         <v>0.7</v>
       </c>
-      <c r="P46" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q46" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R46" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S46" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="P50" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R50" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S50" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T50" s="3">
         <v>40</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="V46" s="3">
-        <v>70</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA46" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="18" customHeight="1">
-      <c r="A47" s="8"/>
-      <c r="B47" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>50</v>
-      </c>
-      <c r="G47" s="3">
-        <v>858</v>
-      </c>
-      <c r="H47" s="3">
-        <v>575</v>
-      </c>
-      <c r="I47" s="3">
-        <v>30</v>
-      </c>
-      <c r="J47" s="4">
-        <f t="shared" si="4"/>
-        <v>429</v>
-      </c>
-      <c r="K47" s="3">
-        <v>38</v>
-      </c>
-      <c r="L47" s="4">
-        <f t="shared" si="5"/>
-        <v>543.4</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N47" s="3">
-        <v>1</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P47" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R47" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S47" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T47" s="3">
-        <v>40</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="V47" s="3">
-        <v>70</v>
-      </c>
-      <c r="W47" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="X47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA47" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="18" customHeight="1">
-      <c r="A48" s="8"/>
-      <c r="B48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>50</v>
-      </c>
-      <c r="G48" s="3">
-        <v>669</v>
-      </c>
-      <c r="H48" s="3">
-        <v>630</v>
-      </c>
-      <c r="I48" s="3">
-        <v>45</v>
-      </c>
-      <c r="J48" s="4">
-        <f t="shared" si="4"/>
-        <v>501.75</v>
-      </c>
-      <c r="K48" s="3">
-        <v>42</v>
-      </c>
-      <c r="L48" s="4">
-        <f t="shared" si="5"/>
-        <v>468.3</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P48" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q48" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R48" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S48" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T48" s="3">
-        <v>40</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="V48" s="4">
-        <v>70</v>
-      </c>
-      <c r="W48" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="X48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA48" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="18" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="7"/>
-      <c r="AA49" s="7"/>
-    </row>
-    <row r="50" spans="1:27" ht="18" customHeight="1">
-      <c r="A50" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>300</v>
-      </c>
-      <c r="H50" s="3">
-        <v>550</v>
-      </c>
-      <c r="I50" s="3">
-        <v>50</v>
-      </c>
-      <c r="J50" s="3">
-        <f t="shared" ref="J50:J57" si="6">ROUND(I50*G50/60,2)</f>
-        <v>250</v>
-      </c>
-      <c r="K50" s="3">
-        <v>55</v>
-      </c>
-      <c r="L50" s="3">
-        <f t="shared" ref="L50:L57" si="7">ROUND(K50*G50/60,2)</f>
-        <v>275</v>
-      </c>
-      <c r="M50" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="N50" s="3">
-        <v>1</v>
-      </c>
-      <c r="O50" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P50" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R50" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S50" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T50" s="3">
-        <v>90</v>
       </c>
       <c r="U50" s="3">
         <v>0.85</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>27</v>
+      <c r="V50" s="3">
+        <v>70</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0.7</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>27</v>
@@ -4785,39 +4571,39 @@
     <row r="51" spans="1:27" ht="18" customHeight="1">
       <c r="A51" s="8"/>
       <c r="B51" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G51" s="3">
-        <v>261</v>
+        <v>858</v>
       </c>
       <c r="H51" s="3">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="I51" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" si="6"/>
-        <v>217.5</v>
+        <f t="shared" si="4"/>
+        <v>429</v>
       </c>
       <c r="K51" s="3">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="7"/>
-        <v>239.25</v>
+        <f t="shared" si="5"/>
+        <v>543.4</v>
       </c>
       <c r="M51" s="3">
         <v>1.9</v>
@@ -4828,29 +4614,29 @@
       <c r="O51" s="3">
         <v>0.9</v>
       </c>
-      <c r="P51" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R51" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S51" s="3">
+      <c r="P51" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R51" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S51" s="4">
         <v>0.4</v>
       </c>
       <c r="T51" s="3">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="U51" s="3">
         <v>0.85</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W51" s="1" t="s">
-        <v>27</v>
+      <c r="V51" s="3">
+        <v>70</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0.7</v>
       </c>
       <c r="X51" s="1" t="s">
         <v>27</v>
@@ -4868,72 +4654,72 @@
     <row r="52" spans="1:27" ht="18" customHeight="1">
       <c r="A52" s="8"/>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G52" s="3">
-        <v>364</v>
+        <v>669</v>
       </c>
       <c r="H52" s="3">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="I52" s="3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J52" s="4">
-        <f t="shared" si="6"/>
-        <v>303.33</v>
+        <f t="shared" si="4"/>
+        <v>501.75</v>
       </c>
       <c r="K52" s="3">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="7"/>
-        <v>333.67</v>
+        <f t="shared" si="5"/>
+        <v>468.3</v>
       </c>
       <c r="M52" s="3">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="N52" s="3">
         <v>1</v>
       </c>
       <c r="O52" s="3">
-        <v>1</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0.5</v>
+        <v>0.9</v>
+      </c>
+      <c r="P52" s="4">
+        <v>0.4</v>
       </c>
       <c r="Q52" s="4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R52" s="4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S52" s="4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="T52" s="3">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="U52" s="3">
         <v>0.85</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>27</v>
+      <c r="V52" s="4">
+        <v>70</v>
+      </c>
+      <c r="W52" s="4">
+        <v>0.7</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>27</v>
@@ -4949,178 +4735,46 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="18" customHeight="1">
-      <c r="A53" s="8"/>
-      <c r="B53" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="1">
-        <v>2</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <v>510</v>
-      </c>
-      <c r="H53" s="3">
-        <v>575</v>
-      </c>
-      <c r="I53" s="3">
-        <v>44</v>
-      </c>
-      <c r="J53" s="4">
-        <f t="shared" si="6"/>
-        <v>374</v>
-      </c>
-      <c r="K53" s="3">
-        <v>42</v>
-      </c>
-      <c r="L53" s="4">
-        <f t="shared" si="7"/>
-        <v>357</v>
-      </c>
-      <c r="M53" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N53" s="3">
-        <v>1</v>
-      </c>
-      <c r="O53" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P53" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R53" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S53" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T53" s="3">
-        <v>55</v>
-      </c>
-      <c r="U53" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="V53" s="3">
-        <v>90</v>
-      </c>
-      <c r="W53" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA53" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
     </row>
     <row r="54" spans="1:27" ht="18" customHeight="1">
-      <c r="A54" s="8"/>
-      <c r="B54" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="A54" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="18" customHeight="1">
+      <c r="A55" s="4"/>
+      <c r="B55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>727</v>
-      </c>
-      <c r="H54" s="3">
-        <v>575</v>
-      </c>
-      <c r="I54" s="3">
-        <v>39</v>
-      </c>
-      <c r="J54" s="4">
-        <f t="shared" si="6"/>
-        <v>472.55</v>
-      </c>
-      <c r="K54" s="3">
-        <v>41</v>
-      </c>
-      <c r="L54" s="4">
-        <f t="shared" si="7"/>
-        <v>496.78</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T54" s="3">
-        <v>40</v>
-      </c>
-      <c r="U54" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="V54" s="3">
-        <v>70</v>
-      </c>
-      <c r="W54" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA54" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" ht="18" customHeight="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>67</v>
@@ -5135,24 +4789,24 @@
         <v>300</v>
       </c>
       <c r="H55" s="3">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="I55" s="3">
-        <v>56</v>
-      </c>
-      <c r="J55" s="4">
-        <f t="shared" si="6"/>
-        <v>280</v>
+        <v>50</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" ref="J55:J62" si="6">ROUND(I55*G55/60,2)</f>
+        <v>250</v>
       </c>
       <c r="K55" s="3">
-        <v>56</v>
-      </c>
-      <c r="L55" s="4">
-        <f t="shared" si="7"/>
-        <v>280</v>
+        <v>55</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" ref="L55:L62" si="7">ROUND(K55*G55/60,2)</f>
+        <v>275</v>
       </c>
       <c r="M55" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="N55" s="3">
         <v>1</v>
@@ -5160,29 +4814,29 @@
       <c r="O55" s="3">
         <v>0.9</v>
       </c>
-      <c r="P55" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q55" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R55" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S55" s="4">
+      <c r="P55" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R55" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S55" s="3">
         <v>0.4</v>
       </c>
       <c r="T55" s="3">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="U55" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="V55" s="3">
-        <v>90</v>
-      </c>
-      <c r="W55" s="3">
-        <v>0.625</v>
+        <v>0.85</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="X55" s="1" t="s">
         <v>27</v>
@@ -5198,12 +4852,11 @@
       </c>
     </row>
     <row r="56" spans="1:27" ht="18" customHeight="1">
-      <c r="A56" s="8"/>
       <c r="B56" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>67</v>
@@ -5215,24 +4868,24 @@
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>480</v>
+        <v>261</v>
       </c>
       <c r="H56" s="3">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="I56" s="3">
-        <v>35</v>
-      </c>
-      <c r="J56" s="1">
+        <v>50</v>
+      </c>
+      <c r="J56" s="4">
         <f t="shared" si="6"/>
-        <v>280</v>
+        <v>217.5</v>
       </c>
       <c r="K56" s="3">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L56" s="4">
         <f t="shared" si="7"/>
-        <v>384</v>
+        <v>239.25</v>
       </c>
       <c r="M56" s="3">
         <v>1.9</v>
@@ -5241,22 +4894,22 @@
         <v>1</v>
       </c>
       <c r="O56" s="3">
-        <v>1</v>
-      </c>
-      <c r="P56" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q56" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R56" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="S56" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P56" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R56" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S56" s="3">
         <v>0.4</v>
       </c>
       <c r="T56" s="3">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="U56" s="3">
         <v>0.85</v>
@@ -5283,10 +4936,10 @@
     <row r="57" spans="1:27" ht="18" customHeight="1">
       <c r="A57" s="8"/>
       <c r="B57" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>67</v>
@@ -5298,27 +4951,27 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>590</v>
+        <v>364</v>
       </c>
       <c r="H57" s="3">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="I57" s="3">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J57" s="4">
         <f t="shared" si="6"/>
-        <v>314.67</v>
+        <v>303.33</v>
       </c>
       <c r="K57" s="3">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L57" s="4">
         <f t="shared" si="7"/>
-        <v>373.67</v>
+        <v>333.67</v>
       </c>
       <c r="M57" s="3">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="N57" s="3">
         <v>1</v>
@@ -5326,17 +4979,17 @@
       <c r="O57" s="3">
         <v>1</v>
       </c>
-      <c r="P57" s="4">
-        <v>0.4</v>
+      <c r="P57" s="3">
+        <v>0.5</v>
       </c>
       <c r="Q57" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R57" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
+      </c>
+      <c r="R57" s="4">
+        <v>0.5</v>
       </c>
       <c r="S57" s="4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="T57" s="3">
         <v>90</v>
@@ -5364,46 +5017,98 @@
       </c>
     </row>
     <row r="58" spans="1:27" ht="18" customHeight="1">
-      <c r="A58" s="4"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="7"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>510</v>
+      </c>
+      <c r="H58" s="3">
+        <v>575</v>
+      </c>
+      <c r="I58" s="3">
+        <v>44</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="6"/>
+        <v>374</v>
+      </c>
+      <c r="K58" s="3">
+        <v>42</v>
+      </c>
+      <c r="L58" s="4">
+        <f t="shared" si="7"/>
+        <v>357</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T58" s="3">
+        <v>55</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="V58" s="3">
+        <v>90</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="59" spans="1:27" ht="18" customHeight="1">
-      <c r="A59" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="A59" s="8"/>
       <c r="B59" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -5412,23 +5117,24 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>35</v>
+        <v>727</v>
       </c>
       <c r="H59" s="3">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
-      </c>
-      <c r="J59" s="3">
-        <f>I59*M59</f>
-        <v>190</v>
+        <v>39</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" si="6"/>
+        <v>472.55</v>
       </c>
       <c r="K59" s="3">
-        <v>10</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="L59" s="4">
+        <f t="shared" si="7"/>
+        <v>496.78</v>
       </c>
       <c r="M59" s="3">
         <v>1.9</v>
@@ -5451,17 +5157,17 @@
       <c r="S59" s="3">
         <v>0.4</v>
       </c>
-      <c r="T59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>27</v>
+      <c r="T59" s="3">
+        <v>40</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="V59" s="3">
+        <v>70</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0.7</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>27</v>
@@ -5479,41 +5185,42 @@
     <row r="60" spans="1:27" ht="18" customHeight="1">
       <c r="A60" s="8"/>
       <c r="B60" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
-        <v>61</v>
-      </c>
-      <c r="J60" s="3">
-        <f>I60*M60</f>
-        <v>152.5</v>
+        <v>56</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" si="6"/>
+        <v>280</v>
       </c>
       <c r="K60" s="3">
-        <v>58</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="L60" s="4">
+        <f t="shared" si="7"/>
+        <v>280</v>
       </c>
       <c r="M60" s="3">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N60" s="3">
         <v>1</v>
@@ -5521,29 +5228,29 @@
       <c r="O60" s="3">
         <v>0.9</v>
       </c>
-      <c r="P60" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R60" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S60" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>27</v>
+      <c r="P60" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R60" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S60" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T60" s="3">
+        <v>70</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="V60" s="3">
+        <v>90</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0.625</v>
       </c>
       <c r="X60" s="1" t="s">
         <v>27</v>
@@ -5561,65 +5268,66 @@
     <row r="61" spans="1:27" ht="18" customHeight="1">
       <c r="A61" s="8"/>
       <c r="B61" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>56</v>
+        <v>480</v>
       </c>
       <c r="H61" s="3">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="I61" s="3">
-        <v>61</v>
-      </c>
-      <c r="J61" s="3">
-        <f>I61*M61</f>
-        <v>152.5</v>
+        <v>35</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="6"/>
+        <v>280</v>
       </c>
       <c r="K61" s="3">
-        <v>58</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="L61" s="4">
+        <f t="shared" si="7"/>
+        <v>384</v>
       </c>
       <c r="M61" s="3">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="N61" s="3">
         <v>1</v>
       </c>
       <c r="O61" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U61" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="P61" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R61" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="S61" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T61" s="3">
+        <v>120</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0.85</v>
       </c>
       <c r="V61" s="1" t="s">
         <v>27</v>
@@ -5643,65 +5351,66 @@
     <row r="62" spans="1:27" ht="18" customHeight="1">
       <c r="A62" s="8"/>
       <c r="B62" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>44</v>
+        <v>590</v>
       </c>
       <c r="H62" s="3">
         <v>650</v>
       </c>
       <c r="I62" s="3">
-        <v>60</v>
-      </c>
-      <c r="J62" s="3">
-        <f>I62*M62</f>
-        <v>150</v>
+        <v>32</v>
+      </c>
+      <c r="J62" s="4">
+        <f t="shared" si="6"/>
+        <v>314.67</v>
       </c>
       <c r="K62" s="3">
-        <v>58</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="L62" s="4">
+        <f t="shared" si="7"/>
+        <v>373.67</v>
       </c>
       <c r="M62" s="3">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="N62" s="3">
         <v>1</v>
       </c>
       <c r="O62" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="P62" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="S62" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T62" s="3">
+        <v>90</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0.85</v>
       </c>
       <c r="V62" s="1" t="s">
         <v>27</v>
@@ -5723,155 +5432,74 @@
       </c>
     </row>
     <row r="63" spans="1:27" ht="18" customHeight="1">
-      <c r="A63" s="4"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
-      <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
-      <c r="Z63" s="7"/>
-      <c r="AA63" s="7"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
     </row>
     <row r="64" spans="1:27" ht="18" customHeight="1">
-      <c r="A64" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" s="1">
-        <v>2</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
-        <v>373</v>
-      </c>
-      <c r="H64" s="3">
-        <v>400</v>
-      </c>
-      <c r="I64" s="3">
-        <v>40</v>
-      </c>
-      <c r="J64" s="3">
-        <f t="shared" ref="J64:J69" si="8">ROUND(I64*G64/60,2)</f>
-        <v>248.67</v>
-      </c>
-      <c r="K64" s="3">
-        <v>30</v>
-      </c>
-      <c r="L64" s="3">
-        <f t="shared" ref="L64:L69" si="9">ROUND(K64*G64/60,2)</f>
-        <v>186.5</v>
-      </c>
-      <c r="M64" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N64" s="3">
-        <v>1</v>
-      </c>
-      <c r="O64" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P64" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R64" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S64" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T64" s="3">
-        <v>15</v>
-      </c>
-      <c r="U64" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="V64" s="3">
-        <v>25</v>
-      </c>
-      <c r="W64" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="X64" s="3">
-        <v>35</v>
-      </c>
-      <c r="Y64" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Z64" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA64" s="1" t="s">
-        <v>27</v>
+      <c r="A64" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:27" ht="18" customHeight="1">
-      <c r="A65" s="8"/>
+      <c r="A65" s="4"/>
       <c r="B65" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E65" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>462</v>
-      </c>
-      <c r="H65" s="4">
-        <v>400</v>
+        <v>35</v>
+      </c>
+      <c r="H65" s="3">
+        <v>750</v>
       </c>
       <c r="I65" s="3">
-        <v>27</v>
-      </c>
-      <c r="J65" s="4">
-        <f t="shared" si="8"/>
-        <v>207.9</v>
+        <v>100</v>
+      </c>
+      <c r="J65" s="3">
+        <f>I65*M65</f>
+        <v>190</v>
       </c>
       <c r="K65" s="3">
-        <v>25</v>
-      </c>
-      <c r="L65" s="4">
-        <f t="shared" si="9"/>
-        <v>192.5</v>
+        <v>10</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="M65" s="3">
         <v>1.9</v>
@@ -5894,17 +5522,17 @@
       <c r="S65" s="3">
         <v>0.4</v>
       </c>
-      <c r="T65" s="3">
-        <v>27</v>
-      </c>
-      <c r="U65" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="V65" s="3">
-        <v>54</v>
-      </c>
-      <c r="W65" s="3">
-        <v>0.6</v>
+      <c r="T65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="X65" s="1" t="s">
         <v>27</v>
@@ -5920,15 +5548,14 @@
       </c>
     </row>
     <row r="66" spans="1:27" ht="18" customHeight="1">
-      <c r="A66" s="8"/>
       <c r="B66" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -5937,27 +5564,26 @@
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>1172</v>
-      </c>
-      <c r="H66" s="4">
-        <v>400</v>
+        <v>48</v>
+      </c>
+      <c r="H66" s="3">
+        <v>650</v>
       </c>
       <c r="I66" s="3">
-        <v>23</v>
-      </c>
-      <c r="J66" s="4">
-        <f t="shared" si="8"/>
-        <v>449.27</v>
+        <v>61</v>
+      </c>
+      <c r="J66" s="3">
+        <f>I66*M66</f>
+        <v>152.5</v>
       </c>
       <c r="K66" s="3">
-        <v>16</v>
-      </c>
-      <c r="L66" s="4">
-        <f t="shared" si="9"/>
-        <v>312.52999999999997</v>
+        <v>58</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="M66" s="3">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="N66" s="3">
         <v>1</v>
@@ -5977,23 +5603,23 @@
       <c r="S66" s="3">
         <v>0.4</v>
       </c>
-      <c r="T66" s="3">
-        <v>10</v>
-      </c>
-      <c r="U66" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="V66" s="3">
-        <v>20</v>
-      </c>
-      <c r="W66" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="X66" s="3">
-        <v>30</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>0.6</v>
+      <c r="T66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y66" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="Z66" s="1" t="s">
         <v>27</v>
@@ -6005,42 +5631,41 @@
     <row r="67" spans="1:27" ht="18" customHeight="1">
       <c r="A67" s="8"/>
       <c r="B67" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
       </c>
       <c r="G67" s="3">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="H67" s="3">
-        <v>340</v>
+        <v>550</v>
       </c>
       <c r="I67" s="3">
-        <v>56</v>
-      </c>
-      <c r="J67" s="4">
-        <f t="shared" si="8"/>
-        <v>193.2</v>
+        <v>61</v>
+      </c>
+      <c r="J67" s="3">
+        <f>I67*M67</f>
+        <v>152.5</v>
       </c>
       <c r="K67" s="3">
-        <v>53</v>
-      </c>
-      <c r="L67" s="4">
-        <f t="shared" si="9"/>
-        <v>182.85</v>
+        <v>58</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="M67" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="N67" s="3">
         <v>1</v>
@@ -6060,17 +5685,17 @@
       <c r="S67" s="3">
         <v>0.4</v>
       </c>
-      <c r="T67" s="3">
-        <v>35</v>
-      </c>
-      <c r="U67" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="V67" s="3">
-        <v>76</v>
-      </c>
-      <c r="W67" s="3">
-        <v>0.6</v>
+      <c r="T67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>27</v>
@@ -6088,177 +5713,619 @@
     <row r="68" spans="1:27" ht="18" customHeight="1">
       <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>44</v>
+      </c>
+      <c r="H68" s="3">
+        <v>650</v>
+      </c>
+      <c r="I68" s="3">
+        <v>60</v>
+      </c>
+      <c r="J68" s="3">
+        <f>I68*M68</f>
+        <v>150</v>
+      </c>
+      <c r="K68" s="3">
+        <v>58</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M68" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="N68" s="3">
+        <v>1</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="18" customHeight="1">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+    </row>
+    <row r="70" spans="1:27" ht="18" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" ht="18" customHeight="1">
+      <c r="A71" s="4"/>
+      <c r="B71" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>373</v>
+      </c>
+      <c r="H71" s="3">
+        <v>400</v>
+      </c>
+      <c r="I71" s="3">
+        <v>40</v>
+      </c>
+      <c r="J71" s="3">
+        <f t="shared" ref="J71:J76" si="8">ROUND(I71*G71/60,2)</f>
+        <v>248.67</v>
+      </c>
+      <c r="K71" s="3">
+        <v>30</v>
+      </c>
+      <c r="L71" s="3">
+        <f t="shared" ref="L71:L76" si="9">ROUND(K71*G71/60,2)</f>
+        <v>186.5</v>
+      </c>
+      <c r="M71" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N71" s="3">
+        <v>1</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T71" s="3">
+        <v>15</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="V71" s="3">
+        <v>25</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="X71" s="3">
+        <v>35</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Z71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA71" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" ht="18" customHeight="1">
+      <c r="B72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>462</v>
+      </c>
+      <c r="H72" s="4">
+        <v>400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>27</v>
+      </c>
+      <c r="J72" s="4">
+        <f t="shared" si="8"/>
+        <v>207.9</v>
+      </c>
+      <c r="K72" s="3">
+        <v>25</v>
+      </c>
+      <c r="L72" s="4">
+        <f t="shared" si="9"/>
+        <v>192.5</v>
+      </c>
+      <c r="M72" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N72" s="3">
+        <v>1</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T72" s="3">
+        <v>27</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="V72" s="3">
+        <v>54</v>
+      </c>
+      <c r="W72" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA72" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" ht="18" customHeight="1">
+      <c r="A73" s="8"/>
+      <c r="B73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1172</v>
+      </c>
+      <c r="H73" s="4">
+        <v>400</v>
+      </c>
+      <c r="I73" s="3">
+        <v>23</v>
+      </c>
+      <c r="J73" s="4">
+        <f t="shared" si="8"/>
+        <v>449.27</v>
+      </c>
+      <c r="K73" s="3">
+        <v>16</v>
+      </c>
+      <c r="L73" s="4">
+        <f t="shared" si="9"/>
+        <v>312.52999999999997</v>
+      </c>
+      <c r="M73" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N73" s="3">
+        <v>1</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T73" s="3">
+        <v>10</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="V73" s="3">
+        <v>20</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="X73" s="3">
+        <v>30</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Z73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA73" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" ht="18" customHeight="1">
+      <c r="A74" s="8"/>
+      <c r="B74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>207</v>
+      </c>
+      <c r="H74" s="3">
+        <v>340</v>
+      </c>
+      <c r="I74" s="3">
+        <v>56</v>
+      </c>
+      <c r="J74" s="4">
+        <f t="shared" si="8"/>
+        <v>193.2</v>
+      </c>
+      <c r="K74" s="3">
+        <v>53</v>
+      </c>
+      <c r="L74" s="4">
+        <f t="shared" si="9"/>
+        <v>182.85</v>
+      </c>
+      <c r="M74" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N74" s="3">
+        <v>1</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T74" s="3">
+        <v>35</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="V74" s="3">
+        <v>76</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA74" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" ht="18" customHeight="1">
+      <c r="A75" s="8"/>
+      <c r="B75" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E75" s="1">
         <v>2</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F75" s="3">
         <v>100</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G75" s="3">
         <v>182</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H75" s="3">
         <v>340</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I75" s="3">
         <v>56</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J75" s="4">
         <f t="shared" si="8"/>
         <v>169.87</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K75" s="3">
         <v>39</v>
       </c>
-      <c r="L68" s="4">
+      <c r="L75" s="4">
         <f t="shared" si="9"/>
         <v>118.3</v>
       </c>
-      <c r="M68" s="3">
+      <c r="M75" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N68" s="3">
-        <v>1</v>
-      </c>
-      <c r="O68" s="3">
+      <c r="N75" s="3">
+        <v>1</v>
+      </c>
+      <c r="O75" s="3">
         <v>0.9</v>
       </c>
-      <c r="P68" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R68" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S68" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T68" s="3">
+      <c r="P75" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T75" s="3">
         <v>35</v>
       </c>
-      <c r="U68" s="3">
+      <c r="U75" s="3">
         <v>0.8</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA68" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" ht="18" customHeight="1">
-      <c r="A69" s="8"/>
-      <c r="B69" s="1" t="s">
+      <c r="V75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA75" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" ht="18" customHeight="1">
+      <c r="A76" s="8"/>
+      <c r="B76" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E76" s="1">
         <v>2</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F76" s="3">
         <v>0</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G76" s="3">
         <v>375</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I76" s="3">
         <v>34</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J76" s="4">
         <f t="shared" si="8"/>
         <v>212.5</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K76" s="3">
         <v>32</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L76" s="4">
         <f t="shared" si="9"/>
         <v>200</v>
       </c>
-      <c r="M69" s="3">
+      <c r="M76" s="3">
         <v>1.9</v>
       </c>
-      <c r="N69" s="3">
-        <v>1</v>
-      </c>
-      <c r="O69" s="3">
+      <c r="N76" s="3">
+        <v>1</v>
+      </c>
+      <c r="O76" s="3">
         <v>0.9</v>
       </c>
-      <c r="P69" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R69" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S69" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T69" s="3">
-        <v>27</v>
-      </c>
-      <c r="U69" s="3">
+      <c r="P76" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T76" s="3">
+        <v>27</v>
+      </c>
+      <c r="U76" s="3">
         <v>0.75</v>
       </c>
-      <c r="V69" s="3">
+      <c r="V76" s="3">
         <v>54</v>
       </c>
-      <c r="W69" s="3">
+      <c r="W76" s="3">
         <v>0.6</v>
       </c>
-      <c r="X69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA69" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" ht="18" customHeight="1"/>
-    <row r="71" spans="1:27" ht="18" customHeight="1"/>
-    <row r="72" spans="1:27" ht="18" customHeight="1"/>
-    <row r="73" spans="1:27" ht="18" customHeight="1"/>
-    <row r="74" spans="1:27" ht="18" customHeight="1"/>
-    <row r="75" spans="1:27" ht="18" customHeight="1"/>
-    <row r="76" spans="1:27" ht="18" customHeight="1"/>
-    <row r="77" spans="1:27" ht="18" customHeight="1"/>
+      <c r="X76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" ht="18" customHeight="1">
+      <c r="A77" s="8"/>
+    </row>
     <row r="78" spans="1:27" ht="18" customHeight="1"/>
     <row r="79" spans="1:27" ht="18" customHeight="1"/>
     <row r="80" spans="1:27" ht="18" customHeight="1"/>
@@ -6381,21 +6448,21 @@
     <row r="197" ht="18" customHeight="1"/>
     <row r="198" ht="18" customHeight="1"/>
     <row r="199" ht="18" customHeight="1"/>
+    <row r="200" ht="18" customHeight="1"/>
+    <row r="201" ht="18" customHeight="1"/>
+    <row r="202" ht="18" customHeight="1"/>
+    <row r="203" ht="18" customHeight="1"/>
+    <row r="204" ht="18" customHeight="1"/>
+    <row r="205" ht="18" customHeight="1"/>
+    <row r="206" ht="18" customHeight="1"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B49:AA49"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="B58:AA58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B63:AA63"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B42:AA42"/>
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="B24:AA24"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="B37:AA37"/>
+  <mergeCells count="6">
+    <mergeCell ref="A69:AA69"/>
+    <mergeCell ref="A63:AA63"/>
+    <mergeCell ref="A53:AA53"/>
+    <mergeCell ref="A39:AA39"/>
+    <mergeCell ref="A25:AA25"/>
+    <mergeCell ref="A45:AA45"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/夺金伤害计算模拟/通用武器/S5夺金武器.xlsx
+++ b/夺金伤害计算模拟/通用武器/S5夺金武器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\夺金伤害计算模拟\通用武器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71E5414-E53B-46BE-AE2A-0872104A724A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08BD18B-EB00-4E72-8D35-4B04BAB0ACB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{8E229568-CDAF-4C35-BF60-FB3FC6A624B9}"/>
   </bookViews>
@@ -513,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,16 +532,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -881,10 +878,10 @@
   <dimension ref="A1:AF206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45:AA45"/>
+      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1035,26 +1032,26 @@
         <f t="shared" ref="L4:L24" si="1">ROUND(K4*G4/60,2)</f>
         <v>592</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="5">
         <v>1.9</v>
       </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
         <v>0.9</v>
       </c>
-      <c r="Q4" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0.9</v>
+      <c r="P4" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.4</v>
       </c>
       <c r="T4" s="4">
         <v>55</v>
@@ -1087,7 +1084,7 @@
       <c r="AF4" s="4"/>
     </row>
     <row r="5" spans="1:32" ht="18" customHeight="1">
-      <c r="A5" s="8"/>
+      <c r="A5"/>
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1170,7 +1167,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="18" customHeight="1">
-      <c r="A6" s="8"/>
+      <c r="A6"/>
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1253,7 +1250,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="18" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7"/>
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1336,7 +1333,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="18" customHeight="1">
-      <c r="A8" s="8"/>
+      <c r="A8"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1419,7 +1416,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="18" customHeight="1">
-      <c r="A9" s="8"/>
+      <c r="A9"/>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1502,7 +1499,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="18" customHeight="1">
-      <c r="A10" s="8"/>
+      <c r="A10"/>
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -1585,7 +1582,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="18" customHeight="1">
-      <c r="A11" s="8"/>
+      <c r="A11"/>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1668,7 +1665,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="18" customHeight="1">
-      <c r="A12" s="8"/>
+      <c r="A12"/>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1751,7 +1748,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="18" customHeight="1">
-      <c r="A13" s="8"/>
+      <c r="A13"/>
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1834,7 +1831,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="18" customHeight="1">
-      <c r="A14" s="8"/>
+      <c r="A14"/>
       <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1917,7 +1914,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="18" customHeight="1">
-      <c r="A15" s="8"/>
+      <c r="A15"/>
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
@@ -2000,7 +1997,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="18" customHeight="1">
-      <c r="A16" s="8"/>
+      <c r="A16"/>
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
@@ -2083,7 +2080,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="18" customHeight="1">
-      <c r="A17" s="8"/>
+      <c r="A17"/>
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
@@ -2166,7 +2163,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="18" customHeight="1">
-      <c r="A18" s="8"/>
+      <c r="A18"/>
       <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
@@ -2249,7 +2246,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" ht="18" customHeight="1">
-      <c r="A19" s="8"/>
+      <c r="A19"/>
       <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,7 +2329,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="18" customHeight="1">
-      <c r="A20" s="8"/>
+      <c r="A20"/>
       <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
@@ -2415,7 +2412,7 @@
       </c>
     </row>
     <row r="21" spans="1:32" ht="18" customHeight="1">
-      <c r="A21" s="8"/>
+      <c r="A21"/>
       <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2498,7 +2495,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="18" customHeight="1">
-      <c r="A22" s="8"/>
+      <c r="A22"/>
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
@@ -2581,7 +2578,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="18" customHeight="1">
-      <c r="A23" s="8"/>
+      <c r="A23"/>
       <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
@@ -2672,7 +2669,7 @@
       <c r="AF23" s="4"/>
     </row>
     <row r="24" spans="1:32" ht="18" customHeight="1">
-      <c r="A24" s="8"/>
+      <c r="A24"/>
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
@@ -2755,33 +2752,33 @@
       </c>
     </row>
     <row r="25" spans="1:32" ht="18" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
     </row>
     <row r="26" spans="1:32" ht="18" customHeight="1">
       <c r="A26" s="1" t="s">
@@ -2977,7 +2974,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" ht="18" customHeight="1">
-      <c r="A29" s="8"/>
+      <c r="A29"/>
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
@@ -3064,7 +3061,7 @@
       </c>
     </row>
     <row r="30" spans="1:32" ht="18" customHeight="1">
-      <c r="A30" s="8"/>
+      <c r="A30"/>
       <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
@@ -3147,7 +3144,7 @@
       </c>
     </row>
     <row r="31" spans="1:32" ht="18" customHeight="1">
-      <c r="A31" s="8"/>
+      <c r="A31"/>
       <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
@@ -3230,7 +3227,7 @@
       </c>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1">
-      <c r="A32" s="8"/>
+      <c r="A32"/>
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
@@ -3313,7 +3310,7 @@
       </c>
     </row>
     <row r="33" spans="1:27" ht="18" customHeight="1">
-      <c r="A33" s="8"/>
+      <c r="A33"/>
       <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
@@ -3396,7 +3393,7 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="18" customHeight="1">
-      <c r="A34" s="8"/>
+      <c r="A34"/>
       <c r="B34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3479,7 +3476,7 @@
       </c>
     </row>
     <row r="35" spans="1:27" ht="18" customHeight="1">
-      <c r="A35" s="8"/>
+      <c r="A35"/>
       <c r="B35" s="3" t="s">
         <v>59</v>
       </c>
@@ -3562,7 +3559,7 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="18" customHeight="1">
-      <c r="A36" s="8"/>
+      <c r="A36"/>
       <c r="B36" s="1" t="s">
         <v>60</v>
       </c>
@@ -3645,7 +3642,7 @@
       </c>
     </row>
     <row r="37" spans="1:27" ht="18" customHeight="1">
-      <c r="A37" s="8"/>
+      <c r="A37"/>
       <c r="B37" s="1" t="s">
         <v>61</v>
       </c>
@@ -3728,7 +3725,7 @@
       </c>
     </row>
     <row r="38" spans="1:27" ht="18" customHeight="1">
-      <c r="A38" s="8"/>
+      <c r="A38"/>
       <c r="B38" s="1" t="s">
         <v>62</v>
       </c>
@@ -3811,33 +3808,33 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="18" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
     </row>
     <row r="40" spans="1:27" ht="18" customHeight="1">
       <c r="A40" s="1" t="s">
@@ -4034,7 +4031,7 @@
       </c>
     </row>
     <row r="43" spans="1:27" ht="18" customHeight="1">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>66</v>
       </c>
@@ -4118,7 +4115,7 @@
       </c>
     </row>
     <row r="44" spans="1:27" ht="18" customHeight="1">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
         <v>68</v>
       </c>
@@ -4202,33 +4199,33 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="18" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
     </row>
     <row r="46" spans="1:27" ht="18" customHeight="1">
       <c r="A46" s="1" t="s">
@@ -4401,7 +4398,7 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="18" customHeight="1">
-      <c r="A49" s="8"/>
+      <c r="A49"/>
       <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
@@ -4486,7 +4483,7 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="18" customHeight="1">
-      <c r="A50" s="8"/>
+      <c r="A50"/>
       <c r="B50" s="1" t="s">
         <v>74</v>
       </c>
@@ -4569,7 +4566,7 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="18" customHeight="1">
-      <c r="A51" s="8"/>
+      <c r="A51"/>
       <c r="B51" s="1" t="s">
         <v>75</v>
       </c>
@@ -4652,7 +4649,7 @@
       </c>
     </row>
     <row r="52" spans="1:27" ht="18" customHeight="1">
-      <c r="A52" s="8"/>
+      <c r="A52"/>
       <c r="B52" s="1" t="s">
         <v>76</v>
       </c>
@@ -4735,33 +4732,33 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="18" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
     </row>
     <row r="54" spans="1:27" ht="18" customHeight="1">
       <c r="A54" s="1" t="s">
@@ -4934,7 +4931,7 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="18" customHeight="1">
-      <c r="A57" s="8"/>
+      <c r="A57"/>
       <c r="B57" s="1" t="s">
         <v>80</v>
       </c>
@@ -5017,7 +5014,7 @@
       </c>
     </row>
     <row r="58" spans="1:27" ht="18" customHeight="1">
-      <c r="A58" s="8"/>
+      <c r="A58"/>
       <c r="B58" s="1" t="s">
         <v>81</v>
       </c>
@@ -5100,7 +5097,7 @@
       </c>
     </row>
     <row r="59" spans="1:27" ht="18" customHeight="1">
-      <c r="A59" s="8"/>
+      <c r="A59"/>
       <c r="B59" s="1" t="s">
         <v>82</v>
       </c>
@@ -5183,7 +5180,7 @@
       </c>
     </row>
     <row r="60" spans="1:27" ht="18" customHeight="1">
-      <c r="A60" s="8"/>
+      <c r="A60"/>
       <c r="B60" s="1" t="s">
         <v>83</v>
       </c>
@@ -5266,7 +5263,7 @@
       </c>
     </row>
     <row r="61" spans="1:27" ht="18" customHeight="1">
-      <c r="A61" s="8"/>
+      <c r="A61"/>
       <c r="B61" s="1" t="s">
         <v>84</v>
       </c>
@@ -5349,7 +5346,7 @@
       </c>
     </row>
     <row r="62" spans="1:27" ht="18" customHeight="1">
-      <c r="A62" s="8"/>
+      <c r="A62"/>
       <c r="B62" s="1" t="s">
         <v>85</v>
       </c>
@@ -5432,33 +5429,33 @@
       </c>
     </row>
     <row r="63" spans="1:27" ht="18" customHeight="1">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
-      <c r="AA63" s="9"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
     </row>
     <row r="64" spans="1:27" ht="18" customHeight="1">
       <c r="A64" s="1" t="s">
@@ -5629,7 +5626,7 @@
       </c>
     </row>
     <row r="67" spans="1:27" ht="18" customHeight="1">
-      <c r="A67" s="8"/>
+      <c r="A67"/>
       <c r="B67" s="1" t="s">
         <v>90</v>
       </c>
@@ -5711,7 +5708,7 @@
       </c>
     </row>
     <row r="68" spans="1:27" ht="18" customHeight="1">
-      <c r="A68" s="8"/>
+      <c r="A68"/>
       <c r="B68" s="1" t="s">
         <v>91</v>
       </c>
@@ -5793,33 +5790,33 @@
       </c>
     </row>
     <row r="69" spans="1:27" ht="18" customHeight="1">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-      <c r="AA69" s="9"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
     </row>
     <row r="70" spans="1:27" ht="18" customHeight="1">
       <c r="A70" s="1" t="s">
@@ -5992,7 +5989,7 @@
       </c>
     </row>
     <row r="73" spans="1:27" ht="18" customHeight="1">
-      <c r="A73" s="8"/>
+      <c r="A73"/>
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -6075,7 +6072,7 @@
       </c>
     </row>
     <row r="74" spans="1:27" ht="18" customHeight="1">
-      <c r="A74" s="8"/>
+      <c r="A74"/>
       <c r="B74" s="1" t="s">
         <v>96</v>
       </c>
@@ -6158,7 +6155,7 @@
       </c>
     </row>
     <row r="75" spans="1:27" ht="18" customHeight="1">
-      <c r="A75" s="8"/>
+      <c r="A75"/>
       <c r="B75" s="1" t="s">
         <v>97</v>
       </c>
@@ -6241,7 +6238,7 @@
       </c>
     </row>
     <row r="76" spans="1:27" ht="18" customHeight="1">
-      <c r="A76" s="8"/>
+      <c r="A76"/>
       <c r="B76" s="1" t="s">
         <v>98</v>
       </c>
@@ -6324,7 +6321,7 @@
       </c>
     </row>
     <row r="77" spans="1:27" ht="18" customHeight="1">
-      <c r="A77" s="8"/>
+      <c r="A77"/>
     </row>
     <row r="78" spans="1:27" ht="18" customHeight="1"/>
     <row r="79" spans="1:27" ht="18" customHeight="1"/>

--- a/夺金伤害计算模拟/通用武器/S5夺金武器.xlsx
+++ b/夺金伤害计算模拟/通用武器/S5夺金武器.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\夺金伤害计算模拟\通用武器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08BD18B-EB00-4E72-8D35-4B04BAB0ACB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BE2DC3-ED04-410C-B47A-85A6838E7144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{8E229568-CDAF-4C35-BF60-FB3FC6A624B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="122">
   <si>
     <t>鉴于官方存在改内容不写入公告的行为，当游戏内数据与表格记录冲突时，以游戏内为准，并私聊我们更新表格数据</t>
   </si>
@@ -430,6 +430,10 @@
   </si>
   <si>
     <t>？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M7战斗步枪（堤风超长枪管）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -875,18 +879,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4E9528-1283-454C-B327-B28DDDF9666A}">
-  <dimension ref="A1:AF206"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="32" width="22.109375" style="3" customWidth="1"/>
+    <col min="1" max="32" width="22.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18" customHeight="1">
@@ -1022,14 +1026,14 @@
         <v>30</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:J24" si="0">ROUND(I4*G4/60,2)</f>
+        <f t="shared" ref="J4:J25" si="0">ROUND(I4*G4/60,2)</f>
         <v>370</v>
       </c>
       <c r="K4" s="4">
         <v>48</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" ref="L4:L24" si="1">ROUND(K4*G4/60,2)</f>
+        <f t="shared" ref="L4:L25" si="1">ROUND(K4*G4/60,2)</f>
         <v>592</v>
       </c>
       <c r="M4" s="5">
@@ -2082,10 +2086,10 @@
     <row r="17" spans="1:32" ht="18" customHeight="1">
       <c r="A17"/>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
@@ -2097,33 +2101,33 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>679</v>
+        <v>649</v>
       </c>
       <c r="H17" s="4">
-        <v>575</v>
+        <v>630</v>
       </c>
       <c r="I17" s="3">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="0"/>
-        <v>362.13</v>
+        <f t="shared" ref="J17" si="2">ROUND(I17*G17/60,2)</f>
+        <v>432.67</v>
       </c>
       <c r="K17" s="3">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="1"/>
-        <v>396.08</v>
+        <f t="shared" ref="L17" si="3">ROUND(K17*G17/60,2)</f>
+        <v>454.3</v>
       </c>
       <c r="M17" s="3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="N17" s="3">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P17" s="4">
         <v>0.4</v>
@@ -2138,13 +2142,13 @@
         <v>0.4</v>
       </c>
       <c r="T17" s="3">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="U17" s="3">
         <v>0.9</v>
       </c>
       <c r="V17" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="W17" s="3">
         <v>0.8</v>
@@ -2165,7 +2169,7 @@
     <row r="18" spans="1:32" ht="18" customHeight="1">
       <c r="A18"/>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>103</v>
@@ -2180,30 +2184,30 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>880</v>
+        <v>679</v>
       </c>
       <c r="H18" s="4">
         <v>575</v>
       </c>
       <c r="I18" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="0"/>
-        <v>454.67</v>
+        <v>362.13</v>
       </c>
       <c r="K18" s="3">
         <v>35</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="1"/>
-        <v>513.33000000000004</v>
+        <v>396.08</v>
       </c>
       <c r="M18" s="3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N18" s="3">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O18" s="3">
         <v>0.9</v>
@@ -2221,16 +2225,16 @@
         <v>0.4</v>
       </c>
       <c r="T18" s="3">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="U18" s="3">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="V18" s="3">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="W18" s="3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>27</v>
@@ -2248,10 +2252,10 @@
     <row r="19" spans="1:32" ht="18" customHeight="1">
       <c r="A19"/>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>26</v>
@@ -2263,27 +2267,27 @@
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>500</v>
-      </c>
-      <c r="H19" s="3">
-        <v>340</v>
+        <v>880</v>
+      </c>
+      <c r="H19" s="4">
+        <v>575</v>
       </c>
       <c r="I19" s="3">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="0"/>
-        <v>466.67</v>
+        <v>454.67</v>
       </c>
       <c r="K19" s="3">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="1"/>
-        <v>458.33</v>
+        <v>513.33000000000004</v>
       </c>
       <c r="M19" s="3">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
@@ -2292,28 +2296,28 @@
         <v>0.9</v>
       </c>
       <c r="P19" s="4">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="Q19" s="4">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="R19" s="4">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="S19" s="4">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="T19" s="3">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="U19" s="3">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="V19" s="3">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="W19" s="3">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>27</v>
@@ -2331,10 +2335,10 @@
     <row r="20" spans="1:32" ht="18" customHeight="1">
       <c r="A20"/>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
@@ -2346,27 +2350,27 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="H20" s="3">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="I20" s="3">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="0"/>
-        <v>302.02999999999997</v>
+        <v>466.67</v>
       </c>
       <c r="K20" s="3">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="1"/>
-        <v>319.8</v>
+        <v>458.33</v>
       </c>
       <c r="M20" s="3">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
@@ -2375,28 +2379,28 @@
         <v>0.9</v>
       </c>
       <c r="P20" s="4">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="Q20" s="4">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="R20" s="4">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="S20" s="4">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="T20" s="3">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="U20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="V20" s="3">
+        <v>90</v>
+      </c>
+      <c r="W20" s="3">
         <v>0.8</v>
-      </c>
-      <c r="V20" s="3">
-        <v>70</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0.6</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>27</v>
@@ -2414,10 +2418,10 @@
     <row r="21" spans="1:32" ht="18" customHeight="1">
       <c r="A21"/>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>26</v>
@@ -2429,27 +2433,27 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>679</v>
+        <v>533</v>
       </c>
       <c r="H21" s="3">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="I21" s="3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="0"/>
-        <v>316.87</v>
+        <v>302.02999999999997</v>
       </c>
       <c r="K21" s="3">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="1"/>
-        <v>475.3</v>
+        <v>319.8</v>
       </c>
       <c r="M21" s="3">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
@@ -2470,16 +2474,16 @@
         <v>0.4</v>
       </c>
       <c r="T21" s="3">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="U21" s="3">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="V21" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="W21" s="3">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>27</v>
@@ -2497,10 +2501,10 @@
     <row r="22" spans="1:32" ht="18" customHeight="1">
       <c r="A22"/>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>26</v>
@@ -2512,27 +2516,27 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="H22" s="3">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="I22" s="3">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>316.87</v>
       </c>
       <c r="K22" s="3">
         <v>42</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>475.3</v>
       </c>
       <c r="M22" s="3">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
@@ -2553,13 +2557,13 @@
         <v>0.4</v>
       </c>
       <c r="T22" s="3">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="U22" s="3">
         <v>0.85</v>
       </c>
       <c r="V22" s="3">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="W22" s="3">
         <v>0.7</v>
@@ -2580,7 +2584,7 @@
     <row r="23" spans="1:32" ht="18" customHeight="1">
       <c r="A23"/>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>106</v>
@@ -2594,34 +2598,33 @@
       <c r="F23" s="4">
         <v>0</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="4">
-        <f>H22*1.06</f>
-        <v>556.5</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="H23" s="3">
+        <v>525</v>
+      </c>
+      <c r="I23" s="3">
         <v>40</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>42</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="M23" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="N23" s="4">
-        <v>1</v>
-      </c>
-      <c r="O23" s="4">
+      <c r="M23" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
         <v>0.9</v>
       </c>
       <c r="P23" s="4">
@@ -2636,18 +2639,16 @@
       <c r="S23" s="4">
         <v>0.4</v>
       </c>
-      <c r="T23" s="4">
-        <f>T22*1.06</f>
-        <v>42.400000000000006</v>
-      </c>
-      <c r="U23" s="4">
+      <c r="T23" s="3">
+        <v>40</v>
+      </c>
+      <c r="U23" s="3">
         <v>0.85</v>
       </c>
-      <c r="V23" s="4">
-        <f>V22*1.06</f>
-        <v>74.2</v>
-      </c>
-      <c r="W23" s="4">
+      <c r="V23" s="3">
+        <v>70</v>
+      </c>
+      <c r="W23" s="3">
         <v>0.7</v>
       </c>
       <c r="X23" s="1" t="s">
@@ -2662,19 +2663,14 @@
       <c r="AA23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
     </row>
     <row r="24" spans="1:32" ht="18" customHeight="1">
       <c r="A24"/>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
@@ -2685,215 +2681,223 @@
       <c r="F24" s="4">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="4">
+        <v>600</v>
+      </c>
+      <c r="H24" s="4">
+        <f>H23*1.06</f>
+        <v>556.5</v>
+      </c>
+      <c r="I24" s="4">
+        <v>40</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="K24" s="4">
+        <v>42</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="M24" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T24" s="4">
+        <f>T23*1.06</f>
+        <v>42.400000000000006</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="V24" s="4">
+        <f>V23*1.06</f>
+        <v>74.2</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+    </row>
+    <row r="25" spans="1:32" ht="18" customHeight="1">
+      <c r="A25"/>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <v>575</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I25" s="3">
         <v>29</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J25" s="3">
         <f t="shared" si="0"/>
         <v>386.67</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K25" s="3">
         <v>32</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L25" s="4">
         <f t="shared" si="1"/>
         <v>426.67</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M25" s="3">
         <v>1.9</v>
       </c>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
         <v>0.9</v>
       </c>
-      <c r="P24" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R24" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S24" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="P25" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T25" s="3">
         <v>40</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U25" s="3">
         <v>0.86</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V25" s="3">
         <v>70</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W25" s="3">
         <v>0.7</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="18" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
+      <c r="X25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:32" ht="18" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+    </row>
+    <row r="27" spans="1:32" ht="18" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-    </row>
-    <row r="27" spans="1:32" ht="18" customHeight="1">
-      <c r="B27" s="1" t="s">
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+    </row>
+    <row r="28" spans="1:32" ht="18" customHeight="1">
+      <c r="B28" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>763</v>
-      </c>
-      <c r="H27" s="3">
-        <v>450</v>
-      </c>
-      <c r="I27" s="3">
-        <v>36</v>
-      </c>
-      <c r="J27" s="3">
-        <f t="shared" ref="J27:J38" si="2">ROUND(I27*G27/60,2)</f>
-        <v>457.8</v>
-      </c>
-      <c r="K27" s="3">
-        <v>33</v>
-      </c>
-      <c r="L27" s="3">
-        <f t="shared" ref="L27:L38" si="3">ROUND(K27*G27/60,2)</f>
-        <v>419.65</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P27" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R27" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S27" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T27" s="3">
-        <v>20</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="V27" s="3">
-        <v>27</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="X27" s="3">
-        <v>40</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>55</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" ht="18" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>110</v>
@@ -2908,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>848</v>
+        <v>763</v>
       </c>
       <c r="H28" s="3">
         <v>450</v>
@@ -2917,15 +2921,15 @@
         <v>36</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="2"/>
-        <v>508.8</v>
+        <f t="shared" ref="J28:J39" si="4">ROUND(I28*G28/60,2)</f>
+        <v>457.8</v>
       </c>
       <c r="K28" s="3">
         <v>33</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="3"/>
-        <v>466.4</v>
+        <f t="shared" ref="L28:L39" si="5">ROUND(K28*G28/60,2)</f>
+        <v>419.65</v>
       </c>
       <c r="M28" s="3">
         <v>1.9</v>
@@ -2974,9 +2978,9 @@
       </c>
     </row>
     <row r="29" spans="1:32" ht="18" customHeight="1">
-      <c r="A29"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>110</v>
@@ -2991,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>694</v>
+        <v>848</v>
       </c>
       <c r="H29" s="3">
         <v>450</v>
@@ -3000,15 +3004,15 @@
         <v>36</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="2"/>
-        <v>416.4</v>
+        <f t="shared" si="4"/>
+        <v>508.8</v>
       </c>
       <c r="K29" s="3">
         <v>33</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="3"/>
-        <v>381.7</v>
+        <f t="shared" si="5"/>
+        <v>466.4</v>
       </c>
       <c r="M29" s="3">
         <v>1.9</v>
@@ -3032,29 +3036,25 @@
         <v>0.4</v>
       </c>
       <c r="T29" s="3">
-        <f>T27*1.35</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="U29" s="3">
         <v>0.75</v>
       </c>
       <c r="V29" s="3">
-        <f>V27*1.35</f>
-        <v>36.450000000000003</v>
+        <v>27</v>
       </c>
       <c r="W29" s="3">
         <v>0.65</v>
       </c>
       <c r="X29" s="3">
-        <f>X27*1.35</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="Y29" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="Z29" s="3">
-        <f>Z27*1.35</f>
-        <v>74.25</v>
+        <v>55</v>
       </c>
       <c r="AA29" s="3">
         <v>0.45</v>
@@ -3063,10 +3063,10 @@
     <row r="30" spans="1:32" ht="18" customHeight="1">
       <c r="A30"/>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>26</v>
@@ -3078,32 +3078,32 @@
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>950</v>
+        <v>694</v>
       </c>
       <c r="H30" s="3">
         <v>450</v>
       </c>
       <c r="I30" s="3">
-        <v>32</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" si="2"/>
-        <v>506.67</v>
+        <v>36</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="4"/>
+        <v>416.4</v>
       </c>
       <c r="K30" s="3">
-        <v>28</v>
-      </c>
-      <c r="L30" s="4">
-        <f t="shared" si="3"/>
-        <v>443.33</v>
-      </c>
-      <c r="M30" s="4">
+        <v>33</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="5"/>
+        <v>381.7</v>
+      </c>
+      <c r="M30" s="3">
         <v>1.9</v>
       </c>
-      <c r="N30" s="4">
-        <v>1</v>
-      </c>
-      <c r="O30" s="4">
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
         <v>0.9</v>
       </c>
       <c r="P30" s="4">
@@ -3119,37 +3119,41 @@
         <v>0.4</v>
       </c>
       <c r="T30" s="3">
-        <v>20</v>
+        <f>T28*1.35</f>
+        <v>27</v>
       </c>
       <c r="U30" s="3">
         <v>0.75</v>
       </c>
       <c r="V30" s="3">
-        <v>27</v>
+        <f>V28*1.35</f>
+        <v>36.450000000000003</v>
       </c>
       <c r="W30" s="3">
         <v>0.65</v>
       </c>
-      <c r="X30" s="4">
-        <v>40</v>
+      <c r="X30" s="3">
+        <f>X28*1.35</f>
+        <v>54</v>
       </c>
       <c r="Y30" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>27</v>
+      <c r="Z30" s="3">
+        <f>Z28*1.35</f>
+        <v>74.25</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0.45</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="18" customHeight="1">
       <c r="A31"/>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>26</v>
@@ -3161,24 +3165,24 @@
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="H31" s="3">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="I31" s="3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="2"/>
-        <v>420</v>
+        <f t="shared" si="4"/>
+        <v>506.67</v>
       </c>
       <c r="K31" s="3">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="3"/>
-        <v>408.33</v>
+        <f t="shared" si="5"/>
+        <v>443.33</v>
       </c>
       <c r="M31" s="4">
         <v>1.9</v>
@@ -3201,38 +3205,38 @@
       <c r="S31" s="4">
         <v>0.4</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="3">
         <v>20</v>
       </c>
-      <c r="U31" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="V31" s="4">
-        <v>27</v>
-      </c>
-      <c r="W31" s="4">
-        <v>0.6</v>
+      <c r="U31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="V31" s="3">
+        <v>27</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0.65</v>
       </c>
       <c r="X31" s="4">
         <v>40</v>
       </c>
-      <c r="Y31" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="Z31" s="4">
-        <v>55</v>
-      </c>
-      <c r="AA31" s="4">
-        <v>0.4</v>
+      <c r="Y31" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1">
       <c r="A32"/>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>26</v>
@@ -3244,24 +3248,24 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>747</v>
+        <v>700</v>
       </c>
       <c r="H32" s="3">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="I32" s="3">
         <v>36</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="2"/>
-        <v>448.2</v>
+        <f t="shared" si="4"/>
+        <v>420</v>
       </c>
       <c r="K32" s="3">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="3"/>
-        <v>597.6</v>
+        <f t="shared" si="5"/>
+        <v>408.33</v>
       </c>
       <c r="M32" s="4">
         <v>1.9</v>
@@ -3284,38 +3288,38 @@
       <c r="S32" s="4">
         <v>0.4</v>
       </c>
-      <c r="T32" s="3">
-        <v>15</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="V32" s="3">
-        <v>31</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>27</v>
+      <c r="T32" s="4">
+        <v>20</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="V32" s="4">
+        <v>27</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="X32" s="4">
+        <v>40</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>55</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>0.4</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="18" customHeight="1">
       <c r="A33"/>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>26</v>
@@ -3327,24 +3331,24 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>605</v>
+        <v>747</v>
       </c>
       <c r="H33" s="3">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="I33" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="2"/>
-        <v>352.92</v>
+        <f t="shared" si="4"/>
+        <v>448.2</v>
       </c>
       <c r="K33" s="3">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="3"/>
-        <v>403.33</v>
+        <f t="shared" si="5"/>
+        <v>597.6</v>
       </c>
       <c r="M33" s="4">
         <v>1.9</v>
@@ -3355,37 +3359,37 @@
       <c r="O33" s="4">
         <v>0.9</v>
       </c>
-      <c r="P33" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="T33" s="4">
-        <v>27</v>
-      </c>
-      <c r="U33" s="4">
+      <c r="P33" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S33" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T33" s="3">
+        <v>15</v>
+      </c>
+      <c r="U33" s="3">
         <v>0.75</v>
       </c>
-      <c r="V33" s="4">
-        <v>54</v>
-      </c>
-      <c r="W33" s="4">
+      <c r="V33" s="3">
+        <v>31</v>
+      </c>
+      <c r="W33" s="3">
         <v>0.65</v>
       </c>
-      <c r="X33" s="4">
-        <v>90</v>
-      </c>
-      <c r="Y33" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Z33" s="4" t="s">
+      <c r="X33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AA33" s="1" t="s">
@@ -3395,10 +3399,10 @@
     <row r="34" spans="1:27" ht="18" customHeight="1">
       <c r="A34"/>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>26</v>
@@ -3410,24 +3414,24 @@
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>659</v>
-      </c>
-      <c r="H34" s="4">
+        <v>605</v>
+      </c>
+      <c r="H34" s="3">
         <v>500</v>
       </c>
       <c r="I34" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="2"/>
-        <v>351.47</v>
+        <f t="shared" si="4"/>
+        <v>352.92</v>
       </c>
       <c r="K34" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" si="3"/>
-        <v>384.42</v>
+        <f t="shared" si="5"/>
+        <v>403.33</v>
       </c>
       <c r="M34" s="4">
         <v>1.9</v>
@@ -3438,47 +3442,47 @@
       <c r="O34" s="4">
         <v>0.9</v>
       </c>
-      <c r="P34" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R34" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S34" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T34" s="3">
-        <v>20</v>
-      </c>
-      <c r="U34" s="3">
+      <c r="P34" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="T34" s="4">
+        <v>27</v>
+      </c>
+      <c r="U34" s="4">
         <v>0.75</v>
       </c>
-      <c r="V34" s="3">
-        <v>27</v>
-      </c>
-      <c r="W34" s="3">
+      <c r="V34" s="4">
+        <v>54</v>
+      </c>
+      <c r="W34" s="4">
         <v>0.65</v>
       </c>
       <c r="X34" s="4">
-        <v>40</v>
-      </c>
-      <c r="Y34" s="3">
+        <v>90</v>
+      </c>
+      <c r="Y34" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z34" s="3">
-        <v>55</v>
-      </c>
-      <c r="AA34" s="3">
-        <v>0.45</v>
+      <c r="Z34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="18" customHeight="1">
       <c r="A35"/>
-      <c r="B35" s="3" t="s">
-        <v>59</v>
+      <c r="B35" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>110</v>
@@ -3490,27 +3494,27 @@
         <v>1</v>
       </c>
       <c r="F35" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>780</v>
-      </c>
-      <c r="H35" s="3">
-        <v>450</v>
+        <v>659</v>
+      </c>
+      <c r="H35" s="4">
+        <v>500</v>
       </c>
       <c r="I35" s="3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="2"/>
-        <v>364</v>
+        <f t="shared" si="4"/>
+        <v>351.47</v>
       </c>
       <c r="K35" s="3">
         <v>35</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="3"/>
-        <v>455</v>
+        <f t="shared" si="5"/>
+        <v>384.42</v>
       </c>
       <c r="M35" s="4">
         <v>1.9</v>
@@ -3533,67 +3537,67 @@
       <c r="S35" s="4">
         <v>0.4</v>
       </c>
-      <c r="T35" s="4">
+      <c r="T35" s="3">
         <v>20</v>
       </c>
-      <c r="U35" s="4">
+      <c r="U35" s="3">
         <v>0.75</v>
       </c>
-      <c r="V35" s="4">
-        <v>27</v>
-      </c>
-      <c r="W35" s="4">
+      <c r="V35" s="3">
+        <v>27</v>
+      </c>
+      <c r="W35" s="3">
         <v>0.65</v>
       </c>
       <c r="X35" s="4">
         <v>40</v>
       </c>
-      <c r="Y35" s="4">
+      <c r="Y35" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z35" s="4">
+      <c r="Z35" s="3">
         <v>55</v>
       </c>
-      <c r="AA35" s="4">
+      <c r="AA35" s="3">
         <v>0.45</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="18" customHeight="1">
       <c r="A36"/>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
         <v>60</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
       <c r="G36" s="3">
-        <v>1091</v>
+        <v>780</v>
       </c>
       <c r="H36" s="3">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="I36" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="2"/>
-        <v>581.87</v>
+        <f t="shared" si="4"/>
+        <v>364</v>
       </c>
       <c r="K36" s="3">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="3"/>
-        <v>509.13</v>
+        <f t="shared" si="5"/>
+        <v>455</v>
       </c>
       <c r="M36" s="4">
         <v>1.9</v>
@@ -3644,13 +3648,13 @@
     <row r="37" spans="1:27" ht="18" customHeight="1">
       <c r="A37"/>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -3659,24 +3663,24 @@
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>898</v>
+        <v>1091</v>
       </c>
       <c r="H37" s="3">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="I37" s="3">
         <v>32</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="2"/>
-        <v>478.93</v>
+        <f t="shared" si="4"/>
+        <v>581.87</v>
       </c>
       <c r="K37" s="3">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" si="3"/>
-        <v>523.83000000000004</v>
+        <f t="shared" si="5"/>
+        <v>509.13</v>
       </c>
       <c r="M37" s="4">
         <v>1.9</v>
@@ -3727,13 +3731,13 @@
     <row r="38" spans="1:27" ht="18" customHeight="1">
       <c r="A38"/>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3742,32 +3746,32 @@
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>820</v>
+        <v>898</v>
       </c>
       <c r="H38" s="3">
         <v>450</v>
       </c>
       <c r="I38" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="2"/>
-        <v>410</v>
+        <f t="shared" si="4"/>
+        <v>478.93</v>
       </c>
       <c r="K38" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" si="3"/>
-        <v>437.33</v>
-      </c>
-      <c r="M38" s="3">
+        <f t="shared" si="5"/>
+        <v>523.83000000000004</v>
+      </c>
+      <c r="M38" s="4">
         <v>1.9</v>
       </c>
-      <c r="N38" s="3">
-        <v>1</v>
-      </c>
-      <c r="O38" s="3">
+      <c r="N38" s="4">
+        <v>1</v>
+      </c>
+      <c r="O38" s="4">
         <v>0.9</v>
       </c>
       <c r="P38" s="4">
@@ -3808,181 +3812,180 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="18" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
+      <c r="A39"/>
+      <c r="B39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>820</v>
+      </c>
+      <c r="H39" s="3">
+        <v>450</v>
+      </c>
+      <c r="I39" s="3">
+        <v>30</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="4"/>
+        <v>410</v>
+      </c>
+      <c r="K39" s="3">
+        <v>32</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="5"/>
+        <v>437.33</v>
+      </c>
+      <c r="M39" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S39" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T39" s="4">
+        <v>20</v>
+      </c>
+      <c r="U39" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="V39" s="4">
+        <v>27</v>
+      </c>
+      <c r="W39" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="X39" s="4">
+        <v>40</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>55</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="40" spans="1:27" ht="18" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+    </row>
+    <row r="41" spans="1:27" ht="18" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
-      <c r="Z40"/>
-      <c r="AA40"/>
-    </row>
-    <row r="41" spans="1:27" ht="18" customHeight="1">
-      <c r="B41" s="1" t="s">
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+    </row>
+    <row r="42" spans="1:27" ht="18" customHeight="1">
+      <c r="B42" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E42" s="1">
         <v>2</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G42" s="3">
         <v>375</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H42" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I42" s="1">
         <v>17</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K42" s="3">
         <f>18*8</f>
         <v>144</v>
       </c>
-      <c r="L41" s="4">
-        <f>2*K41</f>
+      <c r="L42" s="4">
+        <f>2*K42</f>
         <v>288</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T41" s="3">
-        <v>50</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA41" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="18" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>74</v>
-      </c>
-      <c r="H42" s="3">
-        <v>400</v>
-      </c>
-      <c r="I42" s="3">
-        <v>17</v>
-      </c>
-      <c r="J42" s="4">
-        <f>ROUND(I42*G42/60,2)</f>
-        <v>20.97</v>
-      </c>
-      <c r="K42" s="3">
-        <f>16*8</f>
-        <v>128</v>
-      </c>
-      <c r="L42" s="4">
-        <f>ROUND(K42*G42/60,2)</f>
-        <v>157.87</v>
       </c>
       <c r="M42" s="3">
         <v>1.9</v>
@@ -3993,16 +3996,16 @@
       <c r="O42" s="3">
         <v>0.9</v>
       </c>
-      <c r="P42" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R42" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S42" s="4">
+      <c r="P42" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S42" s="3">
         <v>0.4</v>
       </c>
       <c r="T42" s="3">
@@ -4031,15 +4034,15 @@
       </c>
     </row>
     <row r="43" spans="1:27" ht="18" customHeight="1">
-      <c r="A43" s="6"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
@@ -4048,17 +4051,17 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J43" s="4">
         <f>ROUND(I43*G43/60,2)</f>
-        <v>65</v>
+        <v>20.97</v>
       </c>
       <c r="K43" s="3">
         <f>16*8</f>
@@ -4066,7 +4069,7 @@
       </c>
       <c r="L43" s="4">
         <f>ROUND(K43*G43/60,2)</f>
-        <v>640</v>
+        <v>157.87</v>
       </c>
       <c r="M43" s="3">
         <v>1.9</v>
@@ -4117,7 +4120,7 @@
     <row r="44" spans="1:27" ht="18" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>114</v>
@@ -4132,17 +4135,17 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="I44" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J44" s="4">
         <f>ROUND(I44*G44/60,2)</f>
-        <v>60.9</v>
+        <v>65</v>
       </c>
       <c r="K44" s="3">
         <f>16*8</f>
@@ -4150,7 +4153,7 @@
       </c>
       <c r="L44" s="4">
         <f>ROUND(K44*G44/60,2)</f>
-        <v>556.79999999999995</v>
+        <v>640</v>
       </c>
       <c r="M44" s="3">
         <v>1.9</v>
@@ -4199,125 +4202,127 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="18" customHeight="1">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>261</v>
+      </c>
+      <c r="H45" s="3">
+        <v>450</v>
+      </c>
+      <c r="I45" s="3">
+        <v>14</v>
+      </c>
+      <c r="J45" s="4">
+        <f>ROUND(I45*G45/60,2)</f>
+        <v>60.9</v>
+      </c>
+      <c r="K45" s="3">
+        <f>16*8</f>
+        <v>128</v>
+      </c>
+      <c r="L45" s="4">
+        <f>ROUND(K45*G45/60,2)</f>
+        <v>556.79999999999995</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R45" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S45" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T45" s="3">
+        <v>50</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="46" spans="1:27" ht="18" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+    </row>
+    <row r="47" spans="1:27" ht="18" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="18" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:27" ht="18" customHeight="1">
+      <c r="A48" s="4"/>
+      <c r="B48" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>60</v>
-      </c>
-      <c r="G47" s="3">
-        <v>785</v>
-      </c>
-      <c r="H47" s="3">
-        <v>575</v>
-      </c>
-      <c r="I47" s="3">
-        <v>32</v>
-      </c>
-      <c r="J47" s="3">
-        <f t="shared" ref="J47:J52" si="4">ROUND(I47*G47/60,2)</f>
-        <v>418.67</v>
-      </c>
-      <c r="K47" s="3">
-        <v>38</v>
-      </c>
-      <c r="L47" s="3">
-        <f t="shared" ref="L47:L52" si="5">ROUND(K47*G47/60,2)</f>
-        <v>497.17</v>
-      </c>
-      <c r="M47" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="N47" s="3">
-        <v>1</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P47" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R47" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S47" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="T47" s="3">
-        <v>40</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="V47" s="3">
-        <v>70</v>
-      </c>
-      <c r="W47" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="X47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA47" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="18" customHeight="1">
-      <c r="B48" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>104</v>
@@ -4332,7 +4337,7 @@
         <v>60</v>
       </c>
       <c r="G48" s="3">
-        <v>873</v>
+        <v>785</v>
       </c>
       <c r="H48" s="3">
         <v>575</v>
@@ -4341,15 +4346,15 @@
         <v>32</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="4"/>
-        <v>465.6</v>
+        <f t="shared" ref="J48:J53" si="6">ROUND(I48*G48/60,2)</f>
+        <v>418.67</v>
       </c>
       <c r="K48" s="3">
         <v>38</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="5"/>
-        <v>552.9</v>
+        <f t="shared" ref="L48:L53" si="7">ROUND(K48*G48/60,2)</f>
+        <v>497.17</v>
       </c>
       <c r="M48" s="3">
         <v>2.1</v>
@@ -4398,9 +4403,8 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="18" customHeight="1">
-      <c r="A49"/>
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>104</v>
@@ -4415,7 +4419,7 @@
         <v>60</v>
       </c>
       <c r="G49" s="3">
-        <v>714</v>
+        <v>873</v>
       </c>
       <c r="H49" s="3">
         <v>575</v>
@@ -4424,15 +4428,15 @@
         <v>32</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="4"/>
-        <v>380.8</v>
+        <f t="shared" si="6"/>
+        <v>465.6</v>
       </c>
       <c r="K49" s="3">
         <v>38</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="5"/>
-        <v>452.2</v>
+        <f t="shared" si="7"/>
+        <v>552.9</v>
       </c>
       <c r="M49" s="3">
         <v>2.1</v>
@@ -4456,15 +4460,13 @@
         <v>0.4</v>
       </c>
       <c r="T49" s="3">
-        <f>T47*1.35</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="U49" s="3">
         <v>0.85</v>
       </c>
       <c r="V49" s="3">
-        <f>V47*1.35</f>
-        <v>94.5</v>
+        <v>70</v>
       </c>
       <c r="W49" s="3">
         <v>0.7</v>
@@ -4485,48 +4487,48 @@
     <row r="50" spans="1:27" ht="18" customHeight="1">
       <c r="A50"/>
       <c r="B50" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G50" s="3">
-        <v>550</v>
+        <v>714</v>
       </c>
       <c r="H50" s="3">
-        <v>630</v>
+        <v>575</v>
       </c>
       <c r="I50" s="3">
-        <v>55</v>
-      </c>
-      <c r="J50" s="4">
-        <f t="shared" si="4"/>
-        <v>504.17</v>
+        <v>32</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="6"/>
+        <v>380.8</v>
       </c>
       <c r="K50" s="3">
-        <v>53</v>
-      </c>
-      <c r="L50" s="4">
-        <f t="shared" si="5"/>
-        <v>485.83</v>
+        <v>38</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="7"/>
+        <v>452.2</v>
       </c>
       <c r="M50" s="3">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="N50" s="3">
         <v>1</v>
       </c>
       <c r="O50" s="3">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="P50" s="4">
         <v>0.4</v>
@@ -4541,13 +4543,15 @@
         <v>0.4</v>
       </c>
       <c r="T50" s="3">
-        <v>40</v>
+        <f>T48*1.35</f>
+        <v>54</v>
       </c>
       <c r="U50" s="3">
         <v>0.85</v>
       </c>
       <c r="V50" s="3">
-        <v>70</v>
+        <f>V48*1.35</f>
+        <v>94.5</v>
       </c>
       <c r="W50" s="3">
         <v>0.7</v>
@@ -4568,48 +4572,48 @@
     <row r="51" spans="1:27" ht="18" customHeight="1">
       <c r="A51"/>
       <c r="B51" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
       </c>
       <c r="F51" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G51" s="3">
-        <v>858</v>
+        <v>550</v>
       </c>
       <c r="H51" s="3">
-        <v>575</v>
+        <v>630</v>
       </c>
       <c r="I51" s="3">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" si="4"/>
-        <v>429</v>
+        <f t="shared" si="6"/>
+        <v>504.17</v>
       </c>
       <c r="K51" s="3">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="5"/>
-        <v>543.4</v>
+        <f t="shared" si="7"/>
+        <v>485.83</v>
       </c>
       <c r="M51" s="3">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="N51" s="3">
         <v>1</v>
       </c>
       <c r="O51" s="3">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="P51" s="4">
         <v>0.4</v>
@@ -4651,10 +4655,10 @@
     <row r="52" spans="1:27" ht="18" customHeight="1">
       <c r="A52"/>
       <c r="B52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>71</v>
@@ -4666,24 +4670,24 @@
         <v>50</v>
       </c>
       <c r="G52" s="3">
-        <v>669</v>
+        <v>858</v>
       </c>
       <c r="H52" s="3">
-        <v>630</v>
+        <v>575</v>
       </c>
       <c r="I52" s="3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J52" s="4">
-        <f t="shared" si="4"/>
-        <v>501.75</v>
+        <f t="shared" si="6"/>
+        <v>429</v>
       </c>
       <c r="K52" s="3">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="5"/>
-        <v>468.3</v>
+        <f t="shared" si="7"/>
+        <v>543.4</v>
       </c>
       <c r="M52" s="3">
         <v>1.9</v>
@@ -4712,10 +4716,10 @@
       <c r="U52" s="3">
         <v>0.85</v>
       </c>
-      <c r="V52" s="4">
+      <c r="V52" s="3">
         <v>70</v>
       </c>
-      <c r="W52" s="4">
+      <c r="W52" s="3">
         <v>0.7</v>
       </c>
       <c r="X52" s="1" t="s">
@@ -4732,125 +4736,126 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="18" customHeight="1">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="7"/>
+      <c r="A53"/>
+      <c r="B53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>50</v>
+      </c>
+      <c r="G53" s="3">
+        <v>669</v>
+      </c>
+      <c r="H53" s="3">
+        <v>630</v>
+      </c>
+      <c r="I53" s="3">
+        <v>45</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="6"/>
+        <v>501.75</v>
+      </c>
+      <c r="K53" s="3">
+        <v>42</v>
+      </c>
+      <c r="L53" s="4">
+        <f t="shared" si="7"/>
+        <v>468.3</v>
+      </c>
+      <c r="M53" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P53" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R53" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S53" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T53" s="3">
+        <v>40</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="V53" s="4">
+        <v>70</v>
+      </c>
+      <c r="W53" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="54" spans="1:27" ht="18" customHeight="1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+    </row>
+    <row r="55" spans="1:27" ht="18" customHeight="1">
+      <c r="A55" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="18" customHeight="1">
-      <c r="A55" s="4"/>
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="1:27" ht="18" customHeight="1">
+      <c r="A56" s="4"/>
+      <c r="B56" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="1">
-        <v>2</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>300</v>
-      </c>
-      <c r="H55" s="3">
-        <v>550</v>
-      </c>
-      <c r="I55" s="3">
-        <v>50</v>
-      </c>
-      <c r="J55" s="3">
-        <f t="shared" ref="J55:J62" si="6">ROUND(I55*G55/60,2)</f>
-        <v>250</v>
-      </c>
-      <c r="K55" s="3">
-        <v>55</v>
-      </c>
-      <c r="L55" s="3">
-        <f t="shared" ref="L55:L62" si="7">ROUND(K55*G55/60,2)</f>
-        <v>275</v>
-      </c>
-      <c r="M55" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="N55" s="3">
-        <v>1</v>
-      </c>
-      <c r="O55" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P55" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R55" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S55" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T55" s="3">
-        <v>90</v>
-      </c>
-      <c r="U55" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA55" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" ht="18" customHeight="1">
-      <c r="B56" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>107</v>
@@ -4865,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="H56" s="3">
         <v>550</v>
@@ -4873,19 +4878,19 @@
       <c r="I56" s="3">
         <v>50</v>
       </c>
-      <c r="J56" s="4">
-        <f t="shared" si="6"/>
-        <v>217.5</v>
+      <c r="J56" s="3">
+        <f t="shared" ref="J56:J63" si="8">ROUND(I56*G56/60,2)</f>
+        <v>250</v>
       </c>
       <c r="K56" s="3">
         <v>55</v>
       </c>
-      <c r="L56" s="4">
-        <f t="shared" si="7"/>
-        <v>239.25</v>
+      <c r="L56" s="3">
+        <f t="shared" ref="L56:L63" si="9">ROUND(K56*G56/60,2)</f>
+        <v>275</v>
       </c>
       <c r="M56" s="3">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="N56" s="3">
         <v>1</v>
@@ -4931,9 +4936,8 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="18" customHeight="1">
-      <c r="A57"/>
       <c r="B57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>107</v>
@@ -4948,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>364</v>
+        <v>261</v>
       </c>
       <c r="H57" s="3">
         <v>550</v>
@@ -4957,36 +4961,36 @@
         <v>50</v>
       </c>
       <c r="J57" s="4">
-        <f t="shared" si="6"/>
-        <v>303.33</v>
+        <f t="shared" si="8"/>
+        <v>217.5</v>
       </c>
       <c r="K57" s="3">
         <v>55</v>
       </c>
       <c r="L57" s="4">
-        <f t="shared" si="7"/>
-        <v>333.67</v>
+        <f t="shared" si="9"/>
+        <v>239.25</v>
       </c>
       <c r="M57" s="3">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="N57" s="3">
         <v>1</v>
       </c>
       <c r="O57" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P57" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="R57" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="S57" s="4">
-        <v>0.5</v>
+        <v>0.4</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0.4</v>
       </c>
       <c r="T57" s="3">
         <v>90</v>
@@ -5016,10 +5020,10 @@
     <row r="58" spans="1:27" ht="18" customHeight="1">
       <c r="A58"/>
       <c r="B58" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>67</v>
@@ -5031,57 +5035,57 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>510</v>
+        <v>364</v>
       </c>
       <c r="H58" s="3">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="I58" s="3">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J58" s="4">
-        <f t="shared" si="6"/>
-        <v>374</v>
+        <f t="shared" si="8"/>
+        <v>303.33</v>
       </c>
       <c r="K58" s="3">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="L58" s="4">
-        <f t="shared" si="7"/>
-        <v>357</v>
+        <f t="shared" si="9"/>
+        <v>333.67</v>
       </c>
       <c r="M58" s="3">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="N58" s="3">
         <v>1</v>
       </c>
       <c r="O58" s="3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P58" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R58" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S58" s="4">
+        <v>0.5</v>
       </c>
       <c r="T58" s="3">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="U58" s="3">
         <v>0.85</v>
       </c>
-      <c r="V58" s="3">
-        <v>90</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0.7</v>
+      <c r="V58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>27</v>
@@ -5099,39 +5103,39 @@
     <row r="59" spans="1:27" ht="18" customHeight="1">
       <c r="A59"/>
       <c r="B59" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>727</v>
+        <v>510</v>
       </c>
       <c r="H59" s="3">
         <v>575</v>
       </c>
       <c r="I59" s="3">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J59" s="4">
-        <f t="shared" si="6"/>
-        <v>472.55</v>
+        <f t="shared" si="8"/>
+        <v>374</v>
       </c>
       <c r="K59" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="7"/>
-        <v>496.78</v>
+        <f t="shared" si="9"/>
+        <v>357</v>
       </c>
       <c r="M59" s="3">
         <v>1.9</v>
@@ -5155,13 +5159,13 @@
         <v>0.4</v>
       </c>
       <c r="T59" s="3">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="U59" s="3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="V59" s="3">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="W59" s="3">
         <v>0.7</v>
@@ -5182,42 +5186,42 @@
     <row r="60" spans="1:27" ht="18" customHeight="1">
       <c r="A60"/>
       <c r="B60" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>727</v>
       </c>
       <c r="H60" s="3">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="I60" s="3">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J60" s="4">
-        <f t="shared" si="6"/>
-        <v>280</v>
+        <f t="shared" si="8"/>
+        <v>472.55</v>
       </c>
       <c r="K60" s="3">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="L60" s="4">
-        <f t="shared" si="7"/>
-        <v>280</v>
+        <f t="shared" si="9"/>
+        <v>496.78</v>
       </c>
       <c r="M60" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="N60" s="3">
         <v>1</v>
@@ -5225,29 +5229,29 @@
       <c r="O60" s="3">
         <v>0.9</v>
       </c>
-      <c r="P60" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="Q60" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="R60" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="S60" s="4">
+      <c r="P60" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S60" s="3">
         <v>0.4</v>
       </c>
       <c r="T60" s="3">
+        <v>40</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="V60" s="3">
         <v>70</v>
       </c>
-      <c r="U60" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="V60" s="3">
-        <v>90</v>
-      </c>
       <c r="W60" s="3">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="X60" s="1" t="s">
         <v>27</v>
@@ -5265,10 +5269,10 @@
     <row r="61" spans="1:27" ht="18" customHeight="1">
       <c r="A61"/>
       <c r="B61" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>67</v>
@@ -5280,33 +5284,33 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>35</v>
-      </c>
-      <c r="J61" s="1">
-        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="J61" s="4">
+        <f t="shared" si="8"/>
         <v>280</v>
       </c>
       <c r="K61" s="3">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L61" s="4">
-        <f t="shared" si="7"/>
-        <v>384</v>
+        <f t="shared" si="9"/>
+        <v>280</v>
       </c>
       <c r="M61" s="3">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N61" s="3">
         <v>1</v>
       </c>
       <c r="O61" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P61" s="4">
         <v>0.4</v>
@@ -5314,23 +5318,23 @@
       <c r="Q61" s="4">
         <v>0.4</v>
       </c>
-      <c r="R61" s="1">
+      <c r="R61" s="4">
         <v>0.4</v>
       </c>
       <c r="S61" s="4">
         <v>0.4</v>
       </c>
       <c r="T61" s="3">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="U61" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>27</v>
+        <v>0.9</v>
+      </c>
+      <c r="V61" s="3">
+        <v>90</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0.625</v>
       </c>
       <c r="X61" s="1" t="s">
         <v>27</v>
@@ -5348,10 +5352,10 @@
     <row r="62" spans="1:27" ht="18" customHeight="1">
       <c r="A62"/>
       <c r="B62" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>67</v>
@@ -5363,24 +5367,24 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>590</v>
+        <v>480</v>
       </c>
       <c r="H62" s="3">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="I62" s="3">
-        <v>32</v>
-      </c>
-      <c r="J62" s="4">
-        <f t="shared" si="6"/>
-        <v>314.67</v>
+        <v>35</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="8"/>
+        <v>280</v>
       </c>
       <c r="K62" s="3">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="7"/>
-        <v>373.67</v>
+        <f t="shared" si="9"/>
+        <v>384</v>
       </c>
       <c r="M62" s="3">
         <v>1.9</v>
@@ -5404,7 +5408,7 @@
         <v>0.4</v>
       </c>
       <c r="T62" s="3">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="U62" s="3">
         <v>0.85</v>
@@ -5429,127 +5433,129 @@
       </c>
     </row>
     <row r="63" spans="1:27" ht="18" customHeight="1">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
-      <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
-      <c r="Z63" s="7"/>
-      <c r="AA63" s="7"/>
+      <c r="A63"/>
+      <c r="B63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>590</v>
+      </c>
+      <c r="H63" s="3">
+        <v>650</v>
+      </c>
+      <c r="I63" s="3">
+        <v>32</v>
+      </c>
+      <c r="J63" s="4">
+        <f t="shared" si="8"/>
+        <v>314.67</v>
+      </c>
+      <c r="K63" s="3">
+        <v>38</v>
+      </c>
+      <c r="L63" s="4">
+        <f t="shared" si="9"/>
+        <v>373.67</v>
+      </c>
+      <c r="M63" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N63" s="3">
+        <v>1</v>
+      </c>
+      <c r="O63" s="3">
+        <v>1</v>
+      </c>
+      <c r="P63" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="S63" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T63" s="3">
+        <v>90</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA63" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="64" spans="1:27" ht="18" customHeight="1">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+    </row>
+    <row r="65" spans="1:27" ht="18" customHeight="1">
+      <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="18" customHeight="1">
-      <c r="A65" s="4"/>
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="1:27" ht="18" customHeight="1">
+      <c r="A66" s="4"/>
+      <c r="B66" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>35</v>
-      </c>
-      <c r="H65" s="3">
-        <v>750</v>
-      </c>
-      <c r="I65" s="3">
-        <v>100</v>
-      </c>
-      <c r="J65" s="3">
-        <f>I65*M65</f>
-        <v>190</v>
-      </c>
-      <c r="K65" s="3">
-        <v>10</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M65" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N65" s="3">
-        <v>1</v>
-      </c>
-      <c r="O65" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P65" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R65" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S65" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA65" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" ht="18" customHeight="1">
-      <c r="B66" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>88</v>
@@ -5561,26 +5567,26 @@
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H66" s="3">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="I66" s="3">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <f>I66*M66</f>
-        <v>152.5</v>
+        <v>190</v>
       </c>
       <c r="K66" s="3">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M66" s="3">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="N66" s="3">
         <v>1</v>
@@ -5626,9 +5632,8 @@
       </c>
     </row>
     <row r="67" spans="1:27" ht="18" customHeight="1">
-      <c r="A67"/>
       <c r="B67" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>107</v>
@@ -5643,10 +5648,10 @@
         <v>0</v>
       </c>
       <c r="G67" s="3">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H67" s="3">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="I67" s="3">
         <v>61</v>
@@ -5710,10 +5715,10 @@
     <row r="68" spans="1:27" ht="18" customHeight="1">
       <c r="A68"/>
       <c r="B68" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>88</v>
@@ -5725,17 +5730,17 @@
         <v>0</v>
       </c>
       <c r="G68" s="3">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H68" s="3">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="I68" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J68" s="3">
         <f>I68*M68</f>
-        <v>150</v>
+        <v>152.5</v>
       </c>
       <c r="K68" s="3">
         <v>58</v>
@@ -5790,128 +5795,128 @@
       </c>
     </row>
     <row r="69" spans="1:27" ht="18" customHeight="1">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
-      <c r="Z69" s="7"/>
-      <c r="AA69" s="7"/>
+      <c r="A69"/>
+      <c r="B69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>44</v>
+      </c>
+      <c r="H69" s="3">
+        <v>650</v>
+      </c>
+      <c r="I69" s="3">
+        <v>60</v>
+      </c>
+      <c r="J69" s="3">
+        <f>I69*M69</f>
+        <v>150</v>
+      </c>
+      <c r="K69" s="3">
+        <v>58</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M69" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="N69" s="3">
+        <v>1</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA69" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="70" spans="1:27" ht="18" customHeight="1">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+    </row>
+    <row r="71" spans="1:27" ht="18" customHeight="1">
+      <c r="A71" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="18" customHeight="1">
-      <c r="A71" s="4"/>
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="1:27" ht="18" customHeight="1">
+      <c r="A72" s="4"/>
+      <c r="B72" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E71" s="1">
-        <v>2</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>373</v>
-      </c>
-      <c r="H71" s="3">
-        <v>400</v>
-      </c>
-      <c r="I71" s="3">
-        <v>40</v>
-      </c>
-      <c r="J71" s="3">
-        <f t="shared" ref="J71:J76" si="8">ROUND(I71*G71/60,2)</f>
-        <v>248.67</v>
-      </c>
-      <c r="K71" s="3">
-        <v>30</v>
-      </c>
-      <c r="L71" s="3">
-        <f t="shared" ref="L71:L76" si="9">ROUND(K71*G71/60,2)</f>
-        <v>186.5</v>
-      </c>
-      <c r="M71" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="N71" s="3">
-        <v>1</v>
-      </c>
-      <c r="O71" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="P71" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R71" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="S71" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="T71" s="3">
-        <v>15</v>
-      </c>
-      <c r="U71" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="V71" s="3">
-        <v>25</v>
-      </c>
-      <c r="W71" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="X71" s="3">
-        <v>35</v>
-      </c>
-      <c r="Y71" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Z71" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA71" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" ht="18" customHeight="1">
-      <c r="B72" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>67</v>
@@ -5923,24 +5928,24 @@
         <v>0</v>
       </c>
       <c r="G72" s="3">
-        <v>462</v>
-      </c>
-      <c r="H72" s="4">
+        <v>373</v>
+      </c>
+      <c r="H72" s="3">
         <v>400</v>
       </c>
       <c r="I72" s="3">
-        <v>27</v>
-      </c>
-      <c r="J72" s="4">
-        <f t="shared" si="8"/>
-        <v>207.9</v>
+        <v>40</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" ref="J72:J77" si="10">ROUND(I72*G72/60,2)</f>
+        <v>248.67</v>
       </c>
       <c r="K72" s="3">
-        <v>25</v>
-      </c>
-      <c r="L72" s="4">
-        <f t="shared" si="9"/>
-        <v>192.5</v>
+        <v>30</v>
+      </c>
+      <c r="L72" s="3">
+        <f t="shared" ref="L72:L77" si="11">ROUND(K72*G72/60,2)</f>
+        <v>186.5</v>
       </c>
       <c r="M72" s="3">
         <v>1.9</v>
@@ -5964,22 +5969,22 @@
         <v>0.4</v>
       </c>
       <c r="T72" s="3">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="U72" s="3">
         <v>0.75</v>
       </c>
       <c r="V72" s="3">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="W72" s="3">
         <v>0.6</v>
       </c>
-      <c r="X72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y72" s="1" t="s">
-        <v>27</v>
+      <c r="X72" s="3">
+        <v>35</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z72" s="1" t="s">
         <v>27</v>
@@ -5989,41 +5994,40 @@
       </c>
     </row>
     <row r="73" spans="1:27" ht="18" customHeight="1">
-      <c r="A73"/>
       <c r="B73" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E73" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
       </c>
       <c r="G73" s="3">
-        <v>1172</v>
+        <v>462</v>
       </c>
       <c r="H73" s="4">
         <v>400</v>
       </c>
       <c r="I73" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J73" s="4">
-        <f t="shared" si="8"/>
-        <v>449.27</v>
+        <f t="shared" si="10"/>
+        <v>207.9</v>
       </c>
       <c r="K73" s="3">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" si="9"/>
-        <v>312.52999999999997</v>
+        <f t="shared" si="11"/>
+        <v>192.5</v>
       </c>
       <c r="M73" s="3">
         <v>1.9</v>
@@ -6047,22 +6051,22 @@
         <v>0.4</v>
       </c>
       <c r="T73" s="3">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="U73" s="3">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="V73" s="3">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="W73" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="X73" s="3">
-        <v>30</v>
-      </c>
-      <c r="Y73" s="3">
         <v>0.6</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y73" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="Z73" s="1" t="s">
         <v>27</v>
@@ -6074,42 +6078,42 @@
     <row r="74" spans="1:27" ht="18" customHeight="1">
       <c r="A74"/>
       <c r="B74" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
       </c>
       <c r="G74" s="3">
-        <v>207</v>
-      </c>
-      <c r="H74" s="3">
-        <v>340</v>
+        <v>1172</v>
+      </c>
+      <c r="H74" s="4">
+        <v>400</v>
       </c>
       <c r="I74" s="3">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J74" s="4">
-        <f t="shared" si="8"/>
-        <v>193.2</v>
+        <f t="shared" si="10"/>
+        <v>449.27</v>
       </c>
       <c r="K74" s="3">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="L74" s="4">
-        <f t="shared" si="9"/>
-        <v>182.85</v>
+        <f t="shared" si="11"/>
+        <v>312.52999999999997</v>
       </c>
       <c r="M74" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="N74" s="3">
         <v>1</v>
@@ -6130,22 +6134,22 @@
         <v>0.4</v>
       </c>
       <c r="T74" s="3">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="U74" s="3">
         <v>0.85</v>
       </c>
       <c r="V74" s="3">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="W74" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="X74" s="3">
+        <v>30</v>
+      </c>
+      <c r="Y74" s="3">
         <v>0.6</v>
-      </c>
-      <c r="X74" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y74" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="Z74" s="1" t="s">
         <v>27</v>
@@ -6157,10 +6161,10 @@
     <row r="75" spans="1:27" ht="18" customHeight="1">
       <c r="A75"/>
       <c r="B75" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>67</v>
@@ -6169,10 +6173,10 @@
         <v>2</v>
       </c>
       <c r="F75" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G75" s="3">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="H75" s="3">
         <v>340</v>
@@ -6181,15 +6185,15 @@
         <v>56</v>
       </c>
       <c r="J75" s="4">
-        <f t="shared" si="8"/>
-        <v>169.87</v>
+        <f t="shared" si="10"/>
+        <v>193.2</v>
       </c>
       <c r="K75" s="3">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="L75" s="4">
-        <f t="shared" si="9"/>
-        <v>118.3</v>
+        <f t="shared" si="11"/>
+        <v>182.85</v>
       </c>
       <c r="M75" s="3">
         <v>2.2000000000000002</v>
@@ -6216,13 +6220,13 @@
         <v>35</v>
       </c>
       <c r="U75" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W75" s="1" t="s">
-        <v>27</v>
+        <v>0.85</v>
+      </c>
+      <c r="V75" s="3">
+        <v>76</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0.6</v>
       </c>
       <c r="X75" s="1" t="s">
         <v>27</v>
@@ -6240,10 +6244,10 @@
     <row r="76" spans="1:27" ht="18" customHeight="1">
       <c r="A76"/>
       <c r="B76" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>67</v>
@@ -6252,30 +6256,30 @@
         <v>2</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G76" s="3">
-        <v>375</v>
+        <v>182</v>
       </c>
       <c r="H76" s="3">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="I76" s="3">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J76" s="4">
-        <f t="shared" si="8"/>
-        <v>212.5</v>
+        <f t="shared" si="10"/>
+        <v>169.87</v>
       </c>
       <c r="K76" s="3">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L76" s="4">
-        <f t="shared" si="9"/>
-        <v>200</v>
+        <f t="shared" si="11"/>
+        <v>118.3</v>
       </c>
       <c r="M76" s="3">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N76" s="3">
         <v>1</v>
@@ -6296,16 +6300,16 @@
         <v>0.4</v>
       </c>
       <c r="T76" s="3">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="U76" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="V76" s="3">
-        <v>54</v>
-      </c>
-      <c r="W76" s="3">
-        <v>0.6</v>
+        <v>0.8</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="X76" s="1" t="s">
         <v>27</v>
@@ -6322,144 +6326,98 @@
     </row>
     <row r="77" spans="1:27" ht="18" customHeight="1">
       <c r="A77"/>
-    </row>
-    <row r="78" spans="1:27" ht="18" customHeight="1"/>
-    <row r="79" spans="1:27" ht="18" customHeight="1"/>
-    <row r="80" spans="1:27" ht="18" customHeight="1"/>
-    <row r="81" ht="18" customHeight="1"/>
-    <row r="82" ht="18" customHeight="1"/>
-    <row r="83" ht="18" customHeight="1"/>
-    <row r="84" ht="18" customHeight="1"/>
-    <row r="85" ht="18" customHeight="1"/>
-    <row r="86" ht="18" customHeight="1"/>
-    <row r="87" ht="18" customHeight="1"/>
-    <row r="88" ht="18" customHeight="1"/>
-    <row r="89" ht="18" customHeight="1"/>
-    <row r="90" ht="18" customHeight="1"/>
-    <row r="91" ht="18" customHeight="1"/>
-    <row r="92" ht="18" customHeight="1"/>
-    <row r="93" ht="18" customHeight="1"/>
-    <row r="94" ht="18" customHeight="1"/>
-    <row r="95" ht="18" customHeight="1"/>
-    <row r="96" ht="18" customHeight="1"/>
-    <row r="97" ht="18" customHeight="1"/>
-    <row r="98" ht="18" customHeight="1"/>
-    <row r="99" ht="18" customHeight="1"/>
-    <row r="100" ht="18" customHeight="1"/>
-    <row r="101" ht="18" customHeight="1"/>
-    <row r="102" ht="18" customHeight="1"/>
-    <row r="103" ht="18" customHeight="1"/>
-    <row r="104" ht="18" customHeight="1"/>
-    <row r="105" ht="18" customHeight="1"/>
-    <row r="106" ht="18" customHeight="1"/>
-    <row r="107" ht="18" customHeight="1"/>
-    <row r="108" ht="18" customHeight="1"/>
-    <row r="109" ht="18" customHeight="1"/>
-    <row r="110" ht="18" customHeight="1"/>
-    <row r="111" ht="18" customHeight="1"/>
-    <row r="112" ht="18" customHeight="1"/>
-    <row r="113" ht="18" customHeight="1"/>
-    <row r="114" ht="18" customHeight="1"/>
-    <row r="115" ht="18" customHeight="1"/>
-    <row r="116" ht="18" customHeight="1"/>
-    <row r="117" ht="18" customHeight="1"/>
-    <row r="118" ht="18" customHeight="1"/>
-    <row r="119" ht="18" customHeight="1"/>
-    <row r="120" ht="18" customHeight="1"/>
-    <row r="121" ht="18" customHeight="1"/>
-    <row r="122" ht="18" customHeight="1"/>
-    <row r="123" ht="18" customHeight="1"/>
-    <row r="124" ht="18" customHeight="1"/>
-    <row r="125" ht="18" customHeight="1"/>
-    <row r="126" ht="18" customHeight="1"/>
-    <row r="127" ht="18" customHeight="1"/>
-    <row r="128" ht="18" customHeight="1"/>
-    <row r="129" ht="18" customHeight="1"/>
-    <row r="130" ht="18" customHeight="1"/>
-    <row r="131" ht="18" customHeight="1"/>
-    <row r="132" ht="18" customHeight="1"/>
-    <row r="133" ht="18" customHeight="1"/>
-    <row r="134" ht="18" customHeight="1"/>
-    <row r="135" ht="18" customHeight="1"/>
-    <row r="136" ht="18" customHeight="1"/>
-    <row r="137" ht="18" customHeight="1"/>
-    <row r="138" ht="18" customHeight="1"/>
-    <row r="139" ht="18" customHeight="1"/>
-    <row r="140" ht="18" customHeight="1"/>
-    <row r="141" ht="18" customHeight="1"/>
-    <row r="142" ht="18" customHeight="1"/>
-    <row r="143" ht="18" customHeight="1"/>
-    <row r="144" ht="18" customHeight="1"/>
-    <row r="145" ht="18" customHeight="1"/>
-    <row r="146" ht="18" customHeight="1"/>
-    <row r="147" ht="18" customHeight="1"/>
-    <row r="148" ht="18" customHeight="1"/>
-    <row r="149" ht="18" customHeight="1"/>
-    <row r="150" ht="18" customHeight="1"/>
-    <row r="151" ht="18" customHeight="1"/>
-    <row r="152" ht="18" customHeight="1"/>
-    <row r="153" ht="18" customHeight="1"/>
-    <row r="154" ht="18" customHeight="1"/>
-    <row r="155" ht="18" customHeight="1"/>
-    <row r="156" ht="18" customHeight="1"/>
-    <row r="157" ht="18" customHeight="1"/>
-    <row r="158" ht="18" customHeight="1"/>
-    <row r="159" ht="18" customHeight="1"/>
-    <row r="160" ht="18" customHeight="1"/>
-    <row r="161" ht="18" customHeight="1"/>
-    <row r="162" ht="18" customHeight="1"/>
-    <row r="163" ht="18" customHeight="1"/>
-    <row r="164" ht="18" customHeight="1"/>
-    <row r="165" ht="18" customHeight="1"/>
-    <row r="166" ht="18" customHeight="1"/>
-    <row r="167" ht="18" customHeight="1"/>
-    <row r="168" ht="18" customHeight="1"/>
-    <row r="169" ht="18" customHeight="1"/>
-    <row r="170" ht="18" customHeight="1"/>
-    <row r="171" ht="18" customHeight="1"/>
-    <row r="172" ht="18" customHeight="1"/>
-    <row r="173" ht="18" customHeight="1"/>
-    <row r="174" ht="18" customHeight="1"/>
-    <row r="175" ht="18" customHeight="1"/>
-    <row r="176" ht="18" customHeight="1"/>
-    <row r="177" ht="18" customHeight="1"/>
-    <row r="178" ht="18" customHeight="1"/>
-    <row r="179" ht="18" customHeight="1"/>
-    <row r="180" ht="18" customHeight="1"/>
-    <row r="181" ht="18" customHeight="1"/>
-    <row r="182" ht="18" customHeight="1"/>
-    <row r="183" ht="18" customHeight="1"/>
-    <row r="184" ht="18" customHeight="1"/>
-    <row r="185" ht="18" customHeight="1"/>
-    <row r="186" ht="18" customHeight="1"/>
-    <row r="187" ht="18" customHeight="1"/>
-    <row r="188" ht="18" customHeight="1"/>
-    <row r="189" ht="18" customHeight="1"/>
-    <row r="190" ht="18" customHeight="1"/>
-    <row r="191" ht="18" customHeight="1"/>
-    <row r="192" ht="18" customHeight="1"/>
-    <row r="193" ht="18" customHeight="1"/>
-    <row r="194" ht="18" customHeight="1"/>
-    <row r="195" ht="18" customHeight="1"/>
-    <row r="196" ht="18" customHeight="1"/>
-    <row r="197" ht="18" customHeight="1"/>
-    <row r="198" ht="18" customHeight="1"/>
-    <row r="199" ht="18" customHeight="1"/>
-    <row r="200" ht="18" customHeight="1"/>
-    <row r="201" ht="18" customHeight="1"/>
-    <row r="202" ht="18" customHeight="1"/>
-    <row r="203" ht="18" customHeight="1"/>
-    <row r="204" ht="18" customHeight="1"/>
-    <row r="205" ht="18" customHeight="1"/>
-    <row r="206" ht="18" customHeight="1"/>
+      <c r="B77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>375</v>
+      </c>
+      <c r="H77" s="3">
+        <v>400</v>
+      </c>
+      <c r="I77" s="3">
+        <v>34</v>
+      </c>
+      <c r="J77" s="4">
+        <f t="shared" si="10"/>
+        <v>212.5</v>
+      </c>
+      <c r="K77" s="3">
+        <v>32</v>
+      </c>
+      <c r="L77" s="4">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="M77" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N77" s="3">
+        <v>1</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T77" s="3">
+        <v>27</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="V77" s="3">
+        <v>54</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA77" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" ht="18" customHeight="1">
+      <c r="A78"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A69:AA69"/>
-    <mergeCell ref="A63:AA63"/>
-    <mergeCell ref="A53:AA53"/>
-    <mergeCell ref="A39:AA39"/>
-    <mergeCell ref="A25:AA25"/>
-    <mergeCell ref="A45:AA45"/>
+    <mergeCell ref="A70:AA70"/>
+    <mergeCell ref="A64:AA64"/>
+    <mergeCell ref="A54:AA54"/>
+    <mergeCell ref="A40:AA40"/>
+    <mergeCell ref="A26:AA26"/>
+    <mergeCell ref="A46:AA46"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/夺金伤害计算模拟/通用武器/S5夺金武器.xlsx
+++ b/夺金伤害计算模拟/通用武器/S5夺金武器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\夺金伤害计算模拟\通用武器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BE2DC3-ED04-410C-B47A-85A6838E7144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D742C7-6D43-4590-9B32-E8BB2E1E7E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{8E229568-CDAF-4C35-BF60-FB3FC6A624B9}"/>
   </bookViews>
@@ -882,10 +882,10 @@
   <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="18" customHeight="1"/>
@@ -5561,7 +5561,7 @@
         <v>88</v>
       </c>
       <c r="E66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>88</v>
       </c>
       <c r="E67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -5724,7 +5724,7 @@
         <v>88</v>
       </c>
       <c r="E68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>88</v>
       </c>
       <c r="E69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
